--- a/Data/model_outputs_baseline/energy/energy_use_matrix_total_tabula.xlsx
+++ b/Data/model_outputs_baseline/energy/energy_use_matrix_total_tabula.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>3.796168299220205</v>
+        <v>3.922058770551752</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>3.800601518681439</v>
+        <v>3.926638938181957</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>3.805094408397326</v>
+        <v>3.93128068414063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>3.809647745616102</v>
+        <v>3.935984809154875</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>3.814262315974548</v>
+        <v>3.940752122541918</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>3.818938913470265</v>
+        <v>3.945583442176943</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>3.823678340426071</v>
+        <v>3.950479594452614</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>3.82848140744622</v>
+        <v>3.95544141422995</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>3.83334893336413</v>
+        <v>3.960469744780259</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>3.838281745181274</v>
+        <v>3.965565437717736</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>3.843280677996982</v>
+        <v>3.970729352922479</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>3.848346574928839</v>
+        <v>3.975962358453579</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>3.853480287023413</v>
+        <v>3.981265330452014</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>3.858682673157058</v>
+        <v>3.986639153033055</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>3.863954599926504</v>
+        <v>3.992084718167947</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>3.869296941529106</v>
+        <v>3.99760292555462</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>3.874710579632449</v>
+        <v>4.003194682477227</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>3.880196403233192</v>
+        <v>4.008860903654305</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>3.885755308505007</v>
+        <v>4.014602511075434</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>3.891388198635447</v>
+        <v>4.02042043382625</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>3.89709598365174</v>
+        <v>4.026315607901725</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>3.902879580235373</v>
+        <v>4.032288976007679</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>3.908739911525522</v>
+        <v>4.038341487350499</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>3.914677906911352</v>
+        <v>4.044474097415113</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>3.920694501813257</v>
+        <v>4.050687767731314</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>3.926790637453163</v>
+        <v>4.056983465628532</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>3.932967260614118</v>
+        <v>4.063362163979313</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>3.939225323389357</v>
+        <v>4.069824840931676</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>3.945565782921157</v>
+        <v>4.076372479630722</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>3.951989601129881</v>
+        <v>4.083006067929843</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>3.958497744433561</v>
+        <v>4.08972659809197</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>3.965091183458554</v>
+        <v>4.0965350664814</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>3.97177089274185</v>
+        <v>4.103432473246753</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>3.978537850425611</v>
+        <v>4.11041982199577</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>3.985393037944697</v>
+        <v>4.117498119462649</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>3.992337439707966</v>
+        <v>4.124668375168803</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>3.999372042774169</v>
+        <v>4.131931601077879</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>4.006497836523453</v>
+        <v>4.139288811246105</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>4.013715812325471</v>
+        <v>4.146741021469019</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>4.021026963205259</v>
+        <v>4.154289248925798</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>4.028432283507991</v>
+        <v>4.161934511822329</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>4.035932768564082</v>
+        <v>4.169677829034615</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>4.043529414355839</v>
+        <v>4.177520219753732</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>4.051223217187284</v>
+        <v>4.185462703134043</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>4.059015173358636</v>
+        <v>4.193506297946278</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>4.06690627884713</v>
+        <v>4.201652022237165</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>4.074897528995921</v>
+        <v>4.209900892997542</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>4.082989918212904</v>
+        <v>4.218253925840782</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>4.091184439681379</v>
+        <v>4.226712134693602</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>4.099482085084525</v>
+        <v>4.235276531501327</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>4.107883844345806</v>
+        <v>4.243948125949815</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>4.116390705387454</v>
+        <v>4.252727925206303</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>4.125003653909234</v>
+        <v>4.26161693368149</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>4.133723673189849</v>
+        <v>4.27061615281535</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>4.142551743913304</v>
+        <v>4.279726580889063</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>4.15148884402265</v>
+        <v>4.288949212865662</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>4.160535948603644</v>
+        <v>4.298285040262035</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>4.169694029800789</v>
+        <v>4.307735051054855</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>4.178964056768345</v>
+        <v>4.317300229623171</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>4.188346995658898</v>
+        <v>4.326981556730409</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>4.197843809652142</v>
+        <v>4.336780009548515</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>4.207455459026452</v>
+        <v>4.346696561726951</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>4.217182901275945</v>
+        <v>4.356732183509461</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>4.227027091275628</v>
+        <v>4.366887841901213</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>4.236988981497285</v>
+        <v>4.377164500889191</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>4.247069522278684</v>
+        <v>4.387563121718516</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>4.257269662148671</v>
+        <v>4.398084663227395</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>4.267590348210669</v>
+        <v>4.40873008224334</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>4.278032526587074</v>
+        <v>4.419500334043246</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>4.288597142926835</v>
+        <v>4.430396372879823</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>4.299285142978652</v>
+        <v>4.441419152576808</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>4.310097473231878</v>
+        <v>4.452569627195243</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>4.321035081627303</v>
+        <v>4.46384875177308</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>4.332098918339742</v>
+        <v>4.475257483140098</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>4.343289936634309</v>
+        <v>4.486796780810162</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>4.354609093797976</v>
+        <v>4.498467607952495</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>4.366057352148103</v>
+        <v>4.51027093244362</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>4.377635680119099</v>
+        <v>4.522207728001413</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>4.38934505342852</v>
+        <v>4.534278975402405</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>4.401186456323509</v>
+        <v>4.546485663783439</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>4.413160882908328</v>
+        <v>4.558828792028398</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>4.42526933855351</v>
+        <v>4.57130937024057</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>4.437512841386971</v>
+        <v>4.583928421301009</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>4.449892423867015</v>
+        <v>4.596686982512837</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>4.462409134437158</v>
+        <v>4.609586107331373</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>4.475064039262183</v>
+        <v>4.622626867179482</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>4.48785822404471</v>
+        <v>4.635810353347438</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>4.500792795921303</v>
+        <v>4.649137678976167</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>4.513868885436671</v>
+        <v>4.662609981122481</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>4.527087648594462</v>
+        <v>4.676228422904606</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>4.540450268982675</v>
+        <v>4.689994195726004</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>4.55395795997144</v>
+        <v>4.703908521575112</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>4.567611966980705</v>
+        <v>4.717972655398376</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>4.581413569814965</v>
+        <v>4.732187887543604</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>4.595364085061832</v>
+        <v>4.746555546270263</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>4.609464868551114</v>
+        <v>4.761077000323199</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>4.623717317870506</v>
+        <v>4.775753661565738</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>4.63812287493397</v>
+        <v>4.790586987667968</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>4.652683028598381</v>
+        <v>4.805578484845597</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>4.667399317323767</v>
+        <v>4.820729710644517</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>4.682273331872342</v>
+        <v>4.836042276765927</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>4.697306718041049</v>
+        <v>4.85151785192656</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>4.712501179422167</v>
+        <v>4.86715816474824</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>4.727858480186394</v>
+        <v>4.882965006670879</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>4.74338044788233</v>
+        <v>4.898940234882617</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>4.759068976246376</v>
+        <v>4.915085775260701</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>4.7749260280166</v>
+        <v>4.931403625316408</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>4.790953637744127</v>
+        <v>4.947895857137182</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>4.80715391459532</v>
+        <v>4.964564620319017</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>4.823529045137989</v>
+        <v>4.981412144881785</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>4.840081296104659</v>
+        <v>4.998440744160416</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>4.856813017125921</v>
+        <v>5.015652817664374</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>4.873726643426624</v>
+        <v>5.033050853898055</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>4.890824698478017</v>
+        <v>5.050637433134618</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>4.908109796598414</v>
+        <v>5.06841523013562</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>4.925584645495435</v>
+        <v>5.086387016809089</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>4.943252048742571</v>
+        <v>5.104555664798426</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>4.961114908183118</v>
+        <v>5.122924147994782</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>4.979176226254421</v>
+        <v>5.141495544965587</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>4.997439108225737</v>
+        <v>5.16027304129206</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>5.015906764342802</v>
+        <v>5.17925993180859</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>5.034582511872876</v>
+        <v>5.198459622737307</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>5.053469777043705</v>
+        <v>5.217875633710997</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>5.072572096870482</v>
+        <v>5.237511599678166</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>5.091893120864968</v>
+        <v>5.257371272684101</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>5.111436612621254</v>
+        <v>5.277458523522049</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>5.131206451272988</v>
+        <v>5.297777343249212</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>5.151206632817196</v>
+        <v>5.318331844562284</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>5.171441271300294</v>
+        <v>5.339126263028022</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>5.191914599862084</v>
+        <v>5.360164958164339</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>5.212630971634202</v>
+        <v>5.381452414368286</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>5.233594860489761</v>
+        <v>5.402993241687351</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>5.254810861641349</v>
+        <v>5.424792176431251</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>5.27628369208523</v>
+        <v>5.446854081621869</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>5.29801819088986</v>
+        <v>5.469183947279299</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>5.320019319327493</v>
+        <v>5.491786890542824</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>5.342292160848145</v>
+        <v>5.514668155625869</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>5.364841920895626</v>
+        <v>5.537833113604865</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>5.387673926566082</v>
+        <v>5.561287262042198</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>5.410793626109875</v>
+        <v>5.585036224444337</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>5.434206588278224</v>
+        <v>5.609085749556467</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>5.457918501516717</v>
+        <v>5.633441710495944</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>5.481935173008146</v>
+        <v>5.658110103727</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>5.506262527567894</v>
+        <v>5.683097047880339</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>5.530906606395567</v>
+        <v>5.708408782421063</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>5.555873565687041</v>
+        <v>5.734051666169769</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>5.581169675111823</v>
+        <v>5.760032175681623</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>5.606801316160957</v>
+        <v>5.78635690348898</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>5.632774980371456</v>
+        <v>5.813032556213932</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>5.659097267433443</v>
+        <v>5.840065952557019</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>5.685774883187028</v>
+        <v>5.867464021169804</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>5.712814637516156</v>
+        <v>5.895233798418494</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>5.740223442147165</v>
+        <v>5.923382426047156</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>5.76800830836041</v>
+        <v>5.951917148748846</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>5.796176344623336</v>
+        <v>5.980845311653853</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>5.824734754154271</v>
+        <v>6.010174357744442</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>5.853690832425998</v>
+        <v>6.039911825205809</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>5.883051964619009</v>
+        <v>6.07006534472352</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>5.912825623034228</v>
+        <v>6.100642636737754</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>5.943019364475557</v>
+        <v>6.131651508665164</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>5.973640827612608</v>
+        <v>6.163099852099204</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>6.004697730334302</v>
+        <v>6.194995640000233</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>6.036197867104192</v>
+        <v>6.227346923886575</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>6.068149106328343</v>
+        <v>6.260161831038124</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>6.100559387746944</v>
+        <v>6.293448561723976</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>6.133436719860637</v>
+        <v>6.327215386465809</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>6.166789177402769</v>
+        <v>6.361470643348584</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>6.200624898868605</v>
+        <v>6.396222735390251</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>6.234952084112654</v>
+        <v>6.43148012798207</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>6.269778992025019</v>
+        <v>6.467251346411056</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>6.305113938297751</v>
+        <v>6.503544973475888</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>6.340965293291841</v>
+        <v>6.540369647207685</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>6.377341480015486</v>
+        <v>6.577734058706509</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>6.414250972223981</v>
+        <v>6.615646950104597</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>6.451702292651338</v>
+        <v>6.65411711266689</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>6.489704011383522</v>
+        <v>6.693153385039104</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>6.528264744382861</v>
+        <v>6.732764651653474</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>6.567393152172863</v>
+        <v>6.772959841301752</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>6.607097938692482</v>
+        <v>6.81374792588489</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>6.647387850328171</v>
+        <v>6.855137919348268</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>6.688271675132198</v>
+        <v>6.897138876811062</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>6.729758242234722</v>
+        <v>6.939759893897921</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>6.771856421457254</v>
+        <v>6.983010106280548</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>6.814575123134249</v>
+        <v>7.026898689436591</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>6.857923298149458</v>
+        <v>7.071434858632437</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>6.90190993819311</v>
+        <v>7.116627869136414</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>6.94654407624542</v>
+        <v>7.162487016668096</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>6.991834787291702</v>
+        <v>7.209021638089125</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>7.037791189273636</v>
+        <v>7.256241112340416</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>7.084422444281046</v>
+        <v>7.304154861630037</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>7.131737759987757</v>
+        <v>7.352772352875731</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>7.179746391335018</v>
+        <v>7.402103099405426</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>7.228457642465139</v>
+        <v>7.452156662918628</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>7.27788086890782</v>
+        <v>7.502942655711087</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>7.328025480021053</v>
+        <v>7.55447074316485</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>7.378900941688149</v>
+        <v>7.60675064650498</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>7.430516779271873</v>
+        <v>7.659792145824196</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>7.482882580826476</v>
+        <v>7.713605083375928</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>7.536008000567749</v>
+        <v>7.768199367136086</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>7.589902762601149</v>
+        <v>7.82358497463331</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>7.644576664907444</v>
+        <v>7.879771957047143</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>7.700039583585024</v>
+        <v>7.936770443573188</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>7.756301477346622</v>
+        <v>7.994590646052719</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>7.813372392272537</v>
+        <v>8.053242863868821</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>7.871262466815178</v>
+        <v>8.112737489103745</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>7.929981937054172</v>
+        <v>8.173085011956312</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>7.989541142199649</v>
+        <v>8.234296026416985</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>8.0499505303415</v>
+        <v>8.296381236198103</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>8.11122066444176</v>
+        <v>8.359351460916196</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>8.173362228567514</v>
+        <v>8.423217642523635</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>8.236386034361278</v>
+        <v>8.487990851986195</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>8.300303027745878</v>
+        <v>8.553682296203394</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>8.365124295860495</v>
+        <v>8.620303325168049</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>8.430861074224898</v>
+        <v>8.687865439361639</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>8.497524754128209</v>
+        <v>8.756380297381801</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>8.565126890239137</v>
+        <v>8.825859723798398</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>8.633679208434081</v>
+        <v>8.896315717234428</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>8.703193613839804</v>
+        <v>8.967760458668137</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>8.773682199087185</v>
+        <v>9.040206319952603</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>8.845157252772877</v>
+        <v>9.113665872549316</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>8.917631268125168</v>
+        <v>9.188151896471828</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>8.991116951871158</v>
+        <v>9.263677389436234</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>9.065627233301608</v>
+        <v>9.340255576214672</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>9.141175273530646</v>
+        <v>9.417899918188688</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>9.217774474946824</v>
+        <v>9.496624123098737</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>9.295438490852854</v>
+        <v>9.576442154986893</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>9.374181235290742</v>
+        <v>9.65736824432922</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>9.454016893049634</v>
+        <v>9.739416898354891</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>9.534959929853329</v>
+        <v>9.82260291154881</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>9.617025102725032</v>
+        <v>9.906941376334945</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>9.70022747052624</v>
+        <v>9.992447693937208</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>9.784582404667381</v>
+        <v>10.07913758541521</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>9.870105599987593</v>
+        <v>10.16702710287198</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>9.956813085800928</v>
+        <v>10.25613264083088</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>10.04472123710651</v>
+        <v>10.34647094777895</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>10.13384678596009</v>
+        <v>10.43805913787387</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>10.22420683300433</v>
+        <v>10.53091470281188</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>10.3158188591552</v>
+        <v>10.6250555238536</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>10.40870073744184</v>
+        <v>10.72049988400508</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>10.50287074499693</v>
+        <v>10.81726648035087</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>10.59834757519462</v>
+        <v>10.9153744365361</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>10.69515034993319</v>
+        <v>11.01484331539423</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>10.79329863205856</v>
+        <v>11.11569313171691</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>10.89281243792564</v>
+        <v>11.21794436516233</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>10.99371225009337</v>
+        <v>11.32161797329779</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>11.09601903014937</v>
+        <v>11.42673540477253</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>11.19975423165971</v>
+        <v>11.53331861261571</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>11.30493981323884</v>
+        <v>11.64139006765467</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>11.41159825173428</v>
+        <v>11.75097277204768</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>11.5197525555202</v>
+        <v>11.86209027292532</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>11.62942627789342</v>
+        <v>11.97476667613349</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>11.74064353056472</v>
+        <v>12.08902666007102</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>11.85342899723788</v>
+        <v>12.20489548961363</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>11.96780794726764</v>
+        <v>12.32239903011574</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>12.08380624938768</v>
+        <v>12.44156376148023</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>12.20145038549821</v>
+        <v>12.56241679228621</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>12.32076746450236</v>
+        <v>12.68498587396288</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>12.44178523617909</v>
+        <v>12.80929941499754</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>12.56453210507983</v>
+        <v>12.93538649516405</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>12.68903714443439</v>
+        <v>13.06327687975722</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>12.81533011005106</v>
+        <v>13.19300103381743</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>12.94344145419399</v>
+        <v>13.32459013632825</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>13.07340233942001</v>
+        <v>13.45807609436858</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>13.20524465235572</v>
+        <v>13.59349155719976</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>13.33900101739374</v>
+        <v>13.73086993026573</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>13.47470481028591</v>
+        <v>13.87024538908382</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>13.61239017160956</v>
+        <v>14.01165289300136</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>13.7520920200811</v>
+        <v>14.15512819879154</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>13.89384606568944</v>
+        <v>14.30070787406084</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>14.03768882262029</v>
+        <v>14.44842931043769</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>14.18365762193999</v>
+        <v>14.59833073651067</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>14.33179062400583</v>
+        <v>14.75045123048201</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>14.48212683056789</v>
+        <v>14.90483073250074</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>14.63470609652505</v>
+        <v>15.06151005663703</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>14.78956914129581</v>
+        <v>15.22053090245742</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>14.94675755976263</v>
+        <v>15.38193586615845</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>15.10631383274552</v>
+        <v>15.54576845121355</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>15.26828133695911</v>
+        <v>15.71207307848587</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>15.43270435440454</v>
+        <v>15.88089509575751</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>15.59962808114505</v>
+        <v>16.0522807866225</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>15.76909863541233</v>
+        <v>16.22627737868924</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>15.94116306498734</v>
+        <v>16.40293305103485</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>16.1158693537974</v>
+        <v>16.58229694085165</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>16.29326642766883</v>
+        <v>16.76441914922336</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>16.47340415917133</v>
+        <v>16.94935074596609</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>16.6563333714886</v>
+        <v>17.13714377346631</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>16.84210584124638</v>
+        <v>17.32785124944581</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>17.03077430022701</v>
+        <v>17.52152716858093</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>17.22239243589723</v>
+        <v>17.71822650290054</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>17.41701489067319</v>
+        <v>17.91800520088526</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>17.61469725984418</v>
+        <v>18.1209201851877</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>17.81549608807492</v>
+        <v>18.32702934889088</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>18.01946886440349</v>
+        <v>18.53639155022056</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>18.22667401564952</v>
+        <v>18.74906660562383</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>18.43717089814631</v>
+        <v>18.96511528112545</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>18.6510197877076</v>
+        <v>19.18459928187058</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>18.86828186773869</v>
+        <v>19.40758123976154</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>19.08901921539933</v>
+        <v>19.63412469909376</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>19.31329478572548</v>
+        <v>19.86429410009573</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>19.54117239361462</v>
+        <v>20.09815476027572</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>19.77271669357934</v>
+        <v>20.33577285347733</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>20.00799315717281</v>
+        <v>20.57721538654579</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>20.24706804798931</v>
+        <v>20.82255017350546</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>20.49000839414309</v>
+        <v>21.07184580714994</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>20.73688195812879</v>
+        <v>21.32517162794593</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>20.98775720396765</v>
+        <v>21.58259769015247</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>21.24270326154384</v>
+        <v>21.84419472505856</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>21.50178988803787</v>
+        <v>22.11003410124325</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>21.76508742636446</v>
+        <v>22.38018778176438</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>22.03266676052532</v>
+        <v>22.65472827818408</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>22.30459926778981</v>
+        <v>22.93372860134236</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>22.58095676761959</v>
+        <v>23.21726220879332</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>22.86181146725693</v>
+        <v>23.50540294882191</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>23.1472359039009</v>
+        <v>23.79822500096436</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>23.43730288340081</v>
+        <v>24.09580281295982</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>23.7320854154005</v>
+        <v>24.39821103406651</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>24.03165664487511</v>
+        <v>24.70552444468216</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>24.33608978000668</v>
+        <v>25.01781788221522</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>24.64545801635348</v>
+        <v>25.33516616316066</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>24.95983445727623</v>
+        <v>25.65764400134338</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>25.27929203059172</v>
+        <v>25.98532592229978</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>25.60390340143566</v>
+        <v>26.31828617377944</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>25.93374088132457</v>
+        <v>26.65659863235718</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>26.26887633341975</v>
+        <v>27.0003367061595</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>26.60938107400551</v>
+        <v>27.34957323371835</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>26.9553257702078</v>
+        <v>27.70438037898014</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>27.30678033399171</v>
+        <v>28.06482952250991</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>27.66381381248928</v>
+        <v>28.43099114894444</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>28.02649427472459</v>
+        <v>28.80293473076359</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>28.39488869481672</v>
+        <v>29.18072860846332</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>28.76906283175753</v>
+        <v>29.56443986723081</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>29.14908110587659</v>
+        <v>29.95413421023718</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>29.53500647212262</v>
+        <v>30.34987582868195</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>29.92690029030768</v>
+        <v>30.75172726873911</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>30.32482219247751</v>
+        <v>31.15974929557406</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>30.72882994758985</v>
+        <v>31.57400075461767</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>31.1389793237002</v>
+        <v>31.99453843030341</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>31.55532394787231</v>
+        <v>32.4214169024908</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>31.97791516405085</v>
+        <v>32.85468840081925</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>32.4068018891501</v>
+        <v>33.29440265725311</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>32.84203046763221</v>
+        <v>33.74060675709957</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>33.28364452486683</v>
+        <v>34.19334498879831</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>33.73168481958134</v>
+        <v>34.6526586928011</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>34.18618909572928</v>
+        <v>35.1185861098776</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>34.64719193412112</v>
+        <v>35.59116222920028</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>35.11472460417912</v>
+        <v>36.07041863657989</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>35.58881491619233</v>
+        <v>36.55638336323744</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>36.06948707446467</v>
+        <v>37.04908073551557</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>36.5567615317616</v>
+        <v>37.54853122594516</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>37.05065484547472</v>
+        <v>38.05475130609705</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>37.55117953593494</v>
+        <v>38.5677533016607</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>38.05834394731549</v>
+        <v>39.08754525020162</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>38.57215211157462</v>
+        <v>39.61413076205863</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>39.09260361589531</v>
+        <v>40.14750888484954</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>39.61969347408488</v>
+        <v>40.68767397205941</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>40.15341200240057</v>
+        <v>41.23461555618829</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>40.0428888364499</v>
+        <v>41.12089660591916</v>
       </c>
       <c r="C358" t="n">
-        <v>0.6396010973741638</v>
+        <v>0.6420450844470973</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>39.93115004906572</v>
+        <v>41.00592977003581</v>
       </c>
       <c r="C359" t="n">
-        <v>1.286834601636439</v>
+        <v>1.291746633146618</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>39.81817251870056</v>
+        <v>40.88969133478501</v>
       </c>
       <c r="C360" t="n">
-        <v>1.94169806136493</v>
+        <v>1.949102051233565</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>39.70393242953298</v>
+        <v>40.77215687423438</v>
       </c>
       <c r="C361" t="n">
-        <v>2.604184652517175</v>
+        <v>2.614104354139997</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>39.58840525246351</v>
+        <v>40.65330123080056</v>
       </c>
       <c r="C362" t="n">
-        <v>3.274283104848159</v>
+        <v>3.286742093869898</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>39.4715657257189</v>
+        <v>40.53309849537681</v>
       </c>
       <c r="C363" t="n">
-        <v>3.951977635802507</v>
+        <v>3.966999292780163</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>39.35338783509067</v>
+        <v>40.41152198708648</v>
       </c>
       <c r="C364" t="n">
-        <v>4.637247892278184</v>
+        <v>4.654855385266143</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>39.23384479383964</v>
+        <v>40.28854423269501</v>
       </c>
       <c r="C365" t="n">
-        <v>5.330068900637127</v>
+        <v>5.350285167728251</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>39.11290902230529</v>
+        <v>40.16413694572044</v>
       </c>
       <c r="C366" t="n">
-        <v>6.030411025315569</v>
+        <v>6.053258757173245</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>38.99055212726718</v>
+        <v>40.03827100529043</v>
       </c>
       <c r="C367" t="n">
-        <v>6.73823993636091</v>
+        <v>6.763741558777882</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>38.86674488111226</v>
+        <v>39.91091643480161</v>
       </c>
       <c r="C368" t="n">
-        <v>7.453516586190992</v>
+        <v>7.48169424271144</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>38.74145720087267</v>
+        <v>39.78204238044734</v>
       </c>
       <c r="C369" t="n">
-        <v>8.176197195840997</v>
+        <v>8.207072730482787</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>38.61465812720765</v>
+        <v>39.65161708968914</v>
       </c>
       <c r="C370" t="n">
-        <v>8.906233250925846</v>
+        <v>8.939828191040272</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>38.48631580341387</v>
+        <v>39.51960788975861</v>
       </c>
       <c r="C371" t="n">
-        <v>9.643571507508641</v>
+        <v>9.67990704681513</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>38.35639745455963</v>
+        <v>39.38598116628778</v>
       </c>
       <c r="C372" t="n">
-        <v>10.38815400802421</v>
+        <v>10.42725098985743</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>38.22486936685149</v>
+        <v>39.25070234217895</v>
       </c>
       <c r="C373" t="n">
-        <v>10.38809403918768</v>
+        <v>10.42719079373694</v>
       </c>
       <c r="D373" t="n">
-        <v>0.6291345144205485</v>
+        <v>0.6572196384079098</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>38.09169686735394</v>
+        <v>39.11373585683822</v>
       </c>
       <c r="C374" t="n">
-        <v>10.38802465086115</v>
+        <v>10.42712114244869</v>
       </c>
       <c r="D374" t="n">
-        <v>1.264242761025048</v>
+        <v>1.320648437927031</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>37.95684430419698</v>
+        <v>38.97504514591059</v>
       </c>
       <c r="C375" t="n">
-        <v>10.38794446729576</v>
+        <v>10.42704065503674</v>
       </c>
       <c r="D375" t="n">
-        <v>1.905265990348013</v>
+        <v>1.990224360681869</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>37.82027502742164</v>
+        <v>38.83459262167083</v>
       </c>
       <c r="C376" t="n">
-        <v>10.38785192892172</v>
+        <v>10.42694776602911</v>
       </c>
       <c r="D376" t="n">
-        <v>2.552141798292971</v>
+        <v>2.665881557585264</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>37.68195137062773</v>
+        <v>38.69233965423864</v>
       </c>
       <c r="C377" t="n">
-        <v>10.38774527046592</v>
+        <v>10.42684070347271</v>
       </c>
       <c r="D377" t="n">
-        <v>3.204804200043871</v>
+        <v>3.347550446288295</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>37.54183463360582</v>
+        <v>38.54824655380464</v>
       </c>
       <c r="C378" t="n">
-        <v>10.38762249686208</v>
+        <v>10.42671746475246</v>
       </c>
       <c r="D378" t="n">
-        <v>3.863183714143829</v>
+        <v>4.035157799734758</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>37.39988506615088</v>
+        <v>38.4022725540699</v>
       </c>
       <c r="C379" t="n">
-        <v>10.38748135678697</v>
+        <v>10.42657579002762</v>
       </c>
       <c r="D379" t="n">
-        <v>4.52720745670676</v>
+        <v>4.72862684528094</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>37.25606185327365</v>
+        <v>38.25437579712047</v>
       </c>
       <c r="C380" t="n">
-        <v>10.38731931365128</v>
+        <v>10.42641313311314</v>
       </c>
       <c r="D380" t="n">
-        <v>5.196799245682494</v>
+        <v>5.427877374294395</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>37.11032310204349</v>
+        <v>38.10451331997664</v>
       </c>
       <c r="C381" t="n">
-        <v>10.3871335138702</v>
+        <v>10.42622662963037</v>
       </c>
       <c r="D381" t="n">
-        <v>5.871879715049412</v>
+        <v>6.132825862096809</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>36.96262583031498</v>
+        <v>37.95264104307605</v>
       </c>
       <c r="C382" t="n">
-        <v>10.38692075223602</v>
+        <v>10.42601306224903</v>
       </c>
       <c r="D382" t="n">
-        <v>6.552366438760046</v>
+        <v>6.843385598065233</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>36.81292595760972</v>
+        <v>37.79871376096862</v>
       </c>
       <c r="C383" t="n">
-        <v>10.38667743421439</v>
+        <v>10.42576882284113</v>
       </c>
       <c r="D383" t="n">
-        <v>6.552354138242</v>
+        <v>6.843372750166036</v>
       </c>
       <c r="E383" t="n">
-        <v>0.7724388896146215</v>
+        <v>0.8574707306270166</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>36.66117829844414</v>
+        <v>37.64268513552178</v>
       </c>
       <c r="C384" t="n">
-        <v>10.38639953498635</v>
+        <v>10.42548987136844</v>
       </c>
       <c r="D384" t="n">
-        <v>6.552339474079162</v>
+        <v>6.843357433454799</v>
       </c>
       <c r="E384" t="n">
-        <v>1.550710806555119</v>
+        <v>1.721364562179892</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>36.50733655841327</v>
+        <v>37.48450769195382</v>
       </c>
       <c r="C385" t="n">
-        <v>10.38608255506134</v>
+        <v>10.42517169132798</v>
       </c>
       <c r="D385" t="n">
-        <v>6.552322021314068</v>
+        <v>6.843339204069448</v>
       </c>
       <c r="E385" t="n">
-        <v>2.334712882577977</v>
+        <v>2.59156638640355</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>36.35135333335969</v>
+        <v>37.32413281803346</v>
       </c>
       <c r="C386" t="n">
-        <v>10.38572147229105</v>
+        <v>10.42480924158493</v>
       </c>
       <c r="D386" t="n">
-        <v>6.552301284413653</v>
+        <v>6.843317544433315</v>
       </c>
       <c r="E386" t="n">
-        <v>3.12433956577286</v>
+        <v>3.467958133242263</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>36.19318011197682</v>
+        <v>37.16151076680266</v>
       </c>
       <c r="C387" t="n">
-        <v>10.38531069012205</v>
+        <v>10.42439690442997</v>
       </c>
       <c r="D387" t="n">
-        <v>6.552276686651445</v>
+        <v>6.843291852165195</v>
       </c>
       <c r="E387" t="n">
-        <v>3.91948282300356</v>
+        <v>4.350418996327083</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>36.0327672822132</v>
+        <v>36.99659066320007</v>
       </c>
       <c r="C388" t="n">
-        <v>10.38484398193513</v>
+        <v>10.42392842970875</v>
       </c>
       <c r="D388" t="n">
-        <v>6.552247558090046</v>
+        <v>6.843261427527467</v>
       </c>
       <c r="E388" t="n">
-        <v>4.720032352416939</v>
+        <v>5.238825669572524</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>35.87006414186339</v>
+        <v>36.82932051497972</v>
       </c>
       <c r="C389" t="n">
-        <v>10.38431443133332</v>
+        <v>10.42339687488474</v>
       </c>
       <c r="D389" t="n">
-        <v>6.552213122012899</v>
+        <v>6.843225459254574</v>
       </c>
       <c r="E389" t="n">
-        <v>5.525875805564537</v>
+        <v>6.13305259437232</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>35.70501891374884</v>
+        <v>36.6596472283385</v>
       </c>
       <c r="C390" t="n">
-        <v>10.38371436825719</v>
+        <v>10.42279454091367</v>
       </c>
       <c r="D390" t="n">
-        <v>6.552172479643481</v>
+        <v>6.843183008592806</v>
       </c>
       <c r="E390" t="n">
-        <v>6.336899018629339</v>
+        <v>7.032972216826338</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>35.5375787659064</v>
+        <v>36.48751662868173</v>
       </c>
       <c r="C391" t="n">
-        <v>10.38303530082723</v>
+        <v>10.42211290382897</v>
       </c>
       <c r="D391" t="n">
-        <v>6.552124592979291</v>
+        <v>6.843132991371071</v>
       </c>
       <c r="E391" t="n">
-        <v>7.152986252196659</v>
+        <v>7.938455254371468</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>35.36768983721952</v>
+        <v>36.3128734869717</v>
       </c>
       <c r="C392" t="n">
-        <v>10.38226784283754</v>
+        <v>10.42134254196216</v>
       </c>
       <c r="D392" t="n">
-        <v>6.552068265557523</v>
+        <v>6.843074157911442</v>
       </c>
       <c r="E392" t="n">
-        <v>7.974020438954922</v>
+        <v>8.849370971130448</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>35.19529726893783</v>
+        <v>36.13566155211738</v>
       </c>
       <c r="C393" t="n">
-        <v>10.38140163685438</v>
+        <v>10.42047305875168</v>
       </c>
       <c r="D393" t="n">
-        <v>6.552002120959383</v>
+        <v>6.843005070577843</v>
       </c>
       <c r="E393" t="n">
-        <v>7.974010570409662</v>
+        <v>8.849360018067342</v>
       </c>
       <c r="F393" t="n">
-        <v>0.6296864524208491</v>
+        <v>0.6081904199999915</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>35.02034524254385</v>
+        <v>35.95582358987473</v>
       </c>
       <c r="C394" t="n">
-        <v>10.38042527290675</v>
+        <v>10.41949300112704</v>
       </c>
       <c r="D394" t="n">
-        <v>6.5519245788507</v>
+        <v>6.842924078751519</v>
       </c>
       <c r="E394" t="n">
-        <v>7.973998618375575</v>
+        <v>8.849346752565427</v>
       </c>
       <c r="F394" t="n">
-        <v>1.263018603513066</v>
+        <v>1.219934875359376</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>34.84277702443321</v>
+        <v>35.77330142873684</v>
       </c>
       <c r="C395" t="n">
-        <v>10.37932620279435</v>
+        <v>10.41838977349405</v>
       </c>
       <c r="D395" t="n">
-        <v>6.55183382834832</v>
+        <v>6.842829291013475</v>
       </c>
       <c r="E395" t="n">
-        <v>7.973984170472004</v>
+        <v>8.849330716932428</v>
       </c>
       <c r="F395" t="n">
-        <v>1.899906399773825</v>
+        <v>1.835146844998319</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>34.66253501788175</v>
+        <v>35.58803601329848</v>
       </c>
       <c r="C396" t="n">
-        <v>10.37809065008193</v>
+        <v>10.41714954739011</v>
       </c>
       <c r="D396" t="n">
-        <v>6.551727798494832</v>
+        <v>6.842718544306726</v>
       </c>
       <c r="E396" t="n">
-        <v>7.973966738690212</v>
+        <v>8.849311369538935</v>
       </c>
       <c r="F396" t="n">
-        <v>2.540259618270472</v>
+        <v>2.453739632022598</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>34.47956082277577</v>
+        <v>35.39996746558368</v>
       </c>
       <c r="C397" t="n">
-        <v>10.37670351589719</v>
+        <v>10.41575716692742</v>
       </c>
       <c r="D397" t="n">
-        <v>6.551604125618931</v>
+        <v>6.842589369845827</v>
       </c>
       <c r="E397" t="n">
-        <v>7.973945746765175</v>
+        <v>8.849288070802938</v>
       </c>
       <c r="F397" t="n">
-        <v>3.183988086765678</v>
+        <v>3.075626576280201</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>34.29379530358171</v>
+        <v>35.20903515482525</v>
       </c>
       <c r="C398" t="n">
-        <v>10.37514828070311</v>
+        <v>10.41419605019551</v>
       </c>
       <c r="D398" t="n">
-        <v>6.551460117355522</v>
+        <v>6.842438955537681</v>
       </c>
       <c r="E398" t="n">
-        <v>7.973920515682215</v>
+        <v>8.849260067104352</v>
       </c>
       <c r="F398" t="n">
-        <v>3.831001907698324</v>
+        <v>3.700721270700521</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>34.10517866602823</v>
+        <v>35.01517777618017</v>
       </c>
       <c r="C399" t="n">
-        <v>10.37340690227448</v>
+        <v>10.41244808685375</v>
       </c>
       <c r="D399" t="n">
-        <v>6.551292713098835</v>
+        <v>6.842264104676935</v>
       </c>
       <c r="E399" t="n">
-        <v>7.973890247088145</v>
+        <v>8.849226472373855</v>
       </c>
       <c r="F399" t="n">
-        <v>4.481211685425024</v>
+        <v>4.328937780843026</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>33.9136505429655</v>
+        <v>34.81833343885815</v>
       </c>
       <c r="C400" t="n">
-        <v>10.37145971017244</v>
+        <v>10.41049353220869</v>
       </c>
       <c r="D400" t="n">
-        <v>6.551098440663951</v>
+        <v>6.842061190681277</v>
       </c>
       <c r="E400" t="n">
-        <v>7.973854004356085</v>
+        <v>8.849186247077716</v>
       </c>
       <c r="F400" t="n">
-        <v>5.134528756094428</v>
+        <v>4.960190867050425</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>33.71915008985457</v>
+        <v>34.61843976412767</v>
       </c>
       <c r="C401" t="n">
-        <v>10.36928529707976</v>
+        <v>10.40831089814064</v>
       </c>
       <c r="D401" t="n">
-        <v>6.550873368937431</v>
+        <v>6.841826107637694</v>
       </c>
       <c r="E401" t="n">
-        <v>7.97381069103215</v>
+        <v>8.849138174296941</v>
       </c>
       <c r="F401" t="n">
-        <v>5.790865419495963</v>
+        <v>5.594396208571733</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>33.52161609032353</v>
+        <v>34.41543399364674</v>
       </c>
       <c r="C402" t="n">
-        <v>10.366860407434</v>
+        <v>10.40587684131779</v>
       </c>
       <c r="D402" t="n">
-        <v>6.550613056306983</v>
+        <v>6.841554216440248</v>
       </c>
       <c r="E402" t="n">
-        <v>7.973759026371184</v>
+        <v>8.849080832575773</v>
       </c>
       <c r="F402" t="n">
-        <v>6.450135172189782</v>
+        <v>6.231470628986695</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>33.32098707220465</v>
+        <v>34.20925310854331</v>
       </c>
       <c r="C403" t="n">
-        <v>10.36415982387385</v>
+        <v>10.40316604921564</v>
       </c>
       <c r="D403" t="n">
-        <v>6.550312494673468</v>
+        <v>6.841240286313961</v>
       </c>
       <c r="E403" t="n">
-        <v>7.973697517647692</v>
+        <v>8.849012565191199</v>
       </c>
       <c r="F403" t="n">
-        <v>6.450129510992842</v>
+        <v>6.231465160249116</v>
       </c>
       <c r="G403" t="n">
-        <v>0.3010884102451202</v>
+        <v>0.2707178253424085</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>33.11720143444024</v>
+        <v>33.99983395964284</v>
       </c>
       <c r="C404" t="n">
-        <v>10.36115625209746</v>
+        <v>10.40015112454236</v>
       </c>
       <c r="D404" t="n">
-        <v>6.549966048866789</v>
+        <v>6.840878431538431</v>
       </c>
       <c r="E404" t="n">
-        <v>7.97362442890779</v>
+        <v>8.848931445472633</v>
       </c>
       <c r="F404" t="n">
-        <v>6.450122561445186</v>
+        <v>6.231458446952069</v>
       </c>
       <c r="G404" t="n">
-        <v>0.6034780852257704</v>
+        <v>0.5426721512733546</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>32.91019758521202</v>
+        <v>33.78711340920645</v>
       </c>
       <c r="C405" t="n">
-        <v>10.35782020481738</v>
+        <v>10.39680246875768</v>
       </c>
       <c r="D405" t="n">
-        <v>6.549567391310647</v>
+        <v>6.840462043209327</v>
       </c>
       <c r="E405" t="n">
-        <v>7.973537745808522</v>
+        <v>8.848835237779305</v>
       </c>
       <c r="F405" t="n">
-        <v>6.450114048293344</v>
+        <v>6.23145022319613</v>
       </c>
       <c r="G405" t="n">
-        <v>0.9071325561364284</v>
+        <v>0.8158309092608621</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>32.69991409161085</v>
+        <v>33.57102848450459</v>
       </c>
       <c r="C406" t="n">
-        <v>10.35411988558737</v>
+        <v>10.39308816546313</v>
       </c>
       <c r="D406" t="n">
-        <v>6.549109431810404</v>
+        <v>6.839983715906397</v>
       </c>
       <c r="E406" t="n">
-        <v>7.973435136173118</v>
+        <v>8.848721353723084</v>
       </c>
       <c r="F406" t="n">
-        <v>6.450103641678028</v>
+        <v>6.23144017033133</v>
       </c>
       <c r="G406" t="n">
-        <v>1.212016332634822</v>
+        <v>1.090162889763968</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>32.48628984111852</v>
+        <v>33.35151654350424</v>
       </c>
       <c r="C407" t="n">
-        <v>10.35002107336784</v>
+        <v>10.38897386453404</v>
       </c>
       <c r="D407" t="n">
-        <v>6.548584242373712</v>
+        <v>6.839435169173664</v>
       </c>
       <c r="E407" t="n">
-        <v>7.973313905874988</v>
+        <v>8.848586803207105</v>
       </c>
       <c r="F407" t="n">
-        <v>6.450090947236261</v>
+        <v>6.231427907395473</v>
       </c>
       <c r="G407" t="n">
-        <v>1.51809501154263</v>
+        <v>1.365637840828849</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>32.26926421512329</v>
+        <v>33.12851545289737</v>
       </c>
       <c r="C408" t="n">
-        <v>10.34548700879095</v>
+        <v>10.38442266795754</v>
       </c>
       <c r="D408" t="n">
-        <v>6.547982977015674</v>
+        <v>6.838807163761484</v>
       </c>
       <c r="E408" t="n">
-        <v>7.973170949650309</v>
+        <v>8.848428139836093</v>
       </c>
       <c r="F408" t="n">
-        <v>6.450075494606416</v>
+        <v>6.231412980009606</v>
       </c>
       <c r="G408" t="n">
-        <v>1.825335384697148</v>
+        <v>1.642226566047074</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>32.04877727463347</v>
+        <v>32.90196377863804</v>
       </c>
       <c r="C409" t="n">
-        <v>10.34047828318056</v>
+        <v>10.3793950184361</v>
       </c>
       <c r="D409" t="n">
-        <v>6.54729578654952</v>
+        <v>6.838089412631478</v>
       </c>
       <c r="E409" t="n">
-        <v>7.973002696429791</v>
+        <v>8.848241400244001</v>
       </c>
       <c r="F409" t="n">
-        <v>6.450056724117723</v>
+        <v>6.231394847519603</v>
       </c>
       <c r="G409" t="n">
-        <v>2.13370554561332</v>
+        <v>1.919901021569349</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>31.82476995829006</v>
+        <v>32.67180098909226</v>
       </c>
       <c r="C410" t="n">
-        <v>10.33495273147622</v>
+        <v>10.37384859190998</v>
       </c>
       <c r="D410" t="n">
-        <v>6.546511728420213</v>
+        <v>6.837270486784358</v>
       </c>
       <c r="E410" t="n">
-        <v>7.972805048775104</v>
+        <v>8.848022036879019</v>
       </c>
       <c r="F410" t="n">
-        <v>6.450033971423274</v>
+        <v>6.231372868151046</v>
       </c>
       <c r="G410" t="n">
-        <v>2.443174994602023</v>
+        <v>2.198634411855488</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>31.59718429270987</v>
+        <v>32.43796767083185</v>
       </c>
       <c r="C411" t="n">
-        <v>10.32886533030295</v>
+        <v>10.36773819524484</v>
       </c>
       <c r="D411" t="n">
-        <v>6.545618671702724</v>
+        <v>6.836337716037812</v>
       </c>
       <c r="E411" t="n">
-        <v>7.972573316005862</v>
+        <v>8.847764843786329</v>
       </c>
       <c r="F411" t="n">
-        <v>6.450006449812103</v>
+        <v>6.23134628192201</v>
       </c>
       <c r="G411" t="n">
-        <v>2.753714741978787</v>
+        <v>2.478401283830304</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>31.36596361511435</v>
+        <v>32.20040575702627</v>
       </c>
       <c r="C412" t="n">
-        <v>10.32216810251755</v>
+        <v>10.36101567042065</v>
       </c>
       <c r="D412" t="n">
-        <v>6.54460319745858</v>
+        <v>6.835277084956697</v>
       </c>
       <c r="E412" t="n">
-        <v>7.972302140609538</v>
+        <v>8.847463874936288</v>
       </c>
       <c r="F412" t="n">
-        <v>6.449973229911867</v>
+        <v>6.231314191034997</v>
       </c>
       <c r="G412" t="n">
-        <v>3.065297408981535</v>
+        <v>2.759177619100572</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>31.13105280811693</v>
+        <v>31.95905876830176</v>
       </c>
       <c r="C413" t="n">
-        <v>10.31481002964734</v>
+        <v>10.35362980664278</v>
       </c>
       <c r="D413" t="n">
-        <v>6.543450494724287</v>
+        <v>6.834073124221287</v>
       </c>
       <c r="E413" t="n">
-        <v>7.9719854175404</v>
+        <v>8.847112354660913</v>
       </c>
       <c r="F413" t="n">
-        <v>6.449933216468949</v>
+        <v>6.231275537445525</v>
       </c>
       <c r="G413" t="n">
-        <v>3.065295350519409</v>
+        <v>2.759175767051414</v>
       </c>
       <c r="H413" t="n">
-        <v>0.35305313372089</v>
+        <v>0.3053915584517585</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>30.89239854645374</v>
+        <v>31.7138720658465</v>
       </c>
       <c r="C414" t="n">
-        <v>10.30673697371631</v>
+        <v>10.34552626187608</v>
       </c>
       <c r="D414" t="n">
-        <v>6.542144252492744</v>
+        <v>6.832708797810835</v>
       </c>
       <c r="E414" t="n">
-        <v>7.971616206035671</v>
+        <v>8.846702579786037</v>
       </c>
       <c r="F414" t="n">
-        <v>6.4498851218683</v>
+        <v>6.231229077281105</v>
       </c>
       <c r="G414" t="n">
-        <v>3.065292796103483</v>
+        <v>2.759173468768699</v>
       </c>
       <c r="H414" t="n">
-        <v>0.7071909567245429</v>
+        <v>0.6117959793256385</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>30.64994955534848</v>
+        <v>31.46479311644443</v>
       </c>
       <c r="C415" t="n">
-        <v>10.29789161002498</v>
+        <v>10.33664749537397</v>
       </c>
       <c r="D415" t="n">
-        <v>6.540666548144223</v>
+        <v>6.831165386479266</v>
       </c>
       <c r="E415" t="n">
-        <v>7.971186633608485</v>
+        <v>8.846225813081405</v>
       </c>
       <c r="F415" t="n">
-        <v>6.449827436031151</v>
+        <v>6.231173351761043</v>
       </c>
       <c r="G415" t="n">
-        <v>3.065289633447231</v>
+        <v>2.759170623219868</v>
       </c>
       <c r="H415" t="n">
-        <v>1.06238845404492</v>
+        <v>0.9191922748716201</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>30.40365688010292</v>
+        <v>31.21177176901815</v>
       </c>
       <c r="C416" t="n">
-        <v>10.28821337251252</v>
+        <v>10.32693271283746</v>
       </c>
       <c r="D416" t="n">
-        <v>6.538997732885845</v>
+        <v>6.829422368106838</v>
       </c>
       <c r="E416" t="n">
-        <v>7.970687791919008</v>
+        <v>8.845672167697341</v>
       </c>
       <c r="F416" t="n">
-        <v>6.449758392305434</v>
+        <v>6.23110665424494</v>
       </c>
       <c r="G416" t="n">
-        <v>3.065285726623414</v>
+        <v>2.759167108100341</v>
       </c>
       <c r="H416" t="n">
-        <v>1.418622883538977</v>
+        <v>1.227561411591681</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>30.15347416640041</v>
+        <v>30.95476054215522</v>
       </c>
       <c r="C417" t="n">
-        <v>10.27763841338128</v>
+        <v>10.31631782589029</v>
       </c>
       <c r="D417" t="n">
-        <v>6.537116314867776</v>
+        <v>6.827457295625713</v>
       </c>
       <c r="E417" t="n">
-        <v>7.970109624278482</v>
+        <v>8.845030482315817</v>
       </c>
       <c r="F417" t="n">
-        <v>6.449675928942209</v>
+        <v>6.231026993017005</v>
       </c>
       <c r="G417" t="n">
-        <v>3.065280911505484</v>
+        <v>2.75916277573151</v>
       </c>
       <c r="H417" t="n">
-        <v>1.775873873976241</v>
+        <v>1.536886397032633</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>29.89935795070162</v>
+        <v>30.69371492198002</v>
       </c>
       <c r="C418" t="n">
-        <v>10.26609957870203</v>
+        <v>10.3047354275952</v>
       </c>
       <c r="D418" t="n">
-        <v>6.534998840759577</v>
+        <v>6.825245673337677</v>
       </c>
       <c r="E418" t="n">
-        <v>7.969440804606818</v>
+        <v>8.844288186816948</v>
       </c>
       <c r="F418" t="n">
-        <v>6.449577645732054</v>
+        <v>6.230932049394563</v>
       </c>
       <c r="G418" t="n">
-        <v>3.065274990423142</v>
+        <v>2.759157448251567</v>
       </c>
       <c r="H418" t="n">
-        <v>2.134123518368449</v>
+        <v>1.847152362574736</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>29.64126795999906</v>
+        <v>30.42859366961928</v>
       </c>
       <c r="C419" t="n">
-        <v>10.25352640174269</v>
+        <v>10.2921147857604</v>
       </c>
       <c r="D419" t="n">
-        <v>6.532619776690364</v>
+        <v>6.822760832567871</v>
       </c>
       <c r="E419" t="n">
-        <v>7.9686686077437</v>
+        <v>8.843431158349972</v>
       </c>
       <c r="F419" t="n">
-        <v>6.449460755359272</v>
+        <v>6.230819130733646</v>
       </c>
       <c r="G419" t="n">
-        <v>3.06526772591618</v>
+        <v>2.759150911994867</v>
       </c>
       <c r="H419" t="n">
-        <v>2.493356462084918</v>
+        <v>2.158346641817685</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>29.37916742008276</v>
+        <v>30.15935913739091</v>
       </c>
       <c r="C420" t="n">
-        <v>10.23984511577084</v>
+        <v>10.27838185579331</v>
       </c>
       <c r="D420" t="n">
-        <v>6.529951389580683</v>
+        <v>6.819973807728097</v>
       </c>
       <c r="E420" t="n">
-        <v>7.967778771107004</v>
+        <v>8.842443567801793</v>
       </c>
       <c r="F420" t="n">
-        <v>6.449322029019745</v>
+        <v>6.230685117892805</v>
       </c>
       <c r="G420" t="n">
-        <v>3.065258833457482</v>
+        <v>2.759142910943671</v>
       </c>
       <c r="H420" t="n">
-        <v>2.853559985283958</v>
+        <v>2.470458844151561</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>29.11302337135127</v>
+        <v>29.88597759272568</v>
       </c>
       <c r="C421" t="n">
-        <v>10.22497868807034</v>
+        <v>10.26345931484846</v>
       </c>
       <c r="D421" t="n">
-        <v>6.526963630020772</v>
+        <v>6.816853213995718</v>
       </c>
       <c r="E421" t="n">
-        <v>7.966755347801051</v>
+        <v>8.841307716777088</v>
       </c>
       <c r="F421" t="n">
-        <v>6.449157735841321</v>
+        <v>6.230526406709793</v>
       </c>
       <c r="G421" t="n">
-        <v>3.065247973002215</v>
+        <v>2.759133139123536</v>
       </c>
       <c r="H421" t="n">
-        <v>3.214724079174483</v>
+        <v>2.78348092308565</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>28.84280699108479</v>
+        <v>29.60841954870986</v>
       </c>
       <c r="C422" t="n">
-        <v>10.20884687688261</v>
+        <v>10.24726661898617</v>
       </c>
       <c r="D422" t="n">
-        <v>6.523624017977724</v>
+        <v>6.813365127947654</v>
       </c>
       <c r="E422" t="n">
-        <v>7.965580551401835</v>
+        <v>8.840003865341998</v>
       </c>
       <c r="F422" t="n">
-        <v>6.448963575645068</v>
+        <v>6.230338843044943</v>
       </c>
       <c r="G422" t="n">
-        <v>3.065234739205555</v>
+        <v>2.75912123180052</v>
       </c>
       <c r="H422" t="n">
-        <v>3.576841515603791</v>
+        <v>3.097407238891604</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>28.56849392097767</v>
+        <v>29.32666010001541</v>
       </c>
       <c r="C423" t="n">
-        <v>10.19136631293216</v>
+        <v>10.22972008500832</v>
       </c>
       <c r="D423" t="n">
-        <v>6.519897532741196</v>
+        <v>6.809472972621722</v>
       </c>
       <c r="E423" t="n">
-        <v>7.964234592786825</v>
+        <v>8.838510050939508</v>
       </c>
       <c r="F423" t="n">
-        <v>6.448734604592391</v>
+        <v>6.230117650951794</v>
       </c>
       <c r="G423" t="n">
-        <v>3.065218650136295</v>
+        <v>2.759106755324778</v>
       </c>
       <c r="H423" t="n">
-        <v>3.939907909449377</v>
+        <v>3.412234615100994</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>28.29006459861037</v>
+        <v>29.040679262863</v>
       </c>
       <c r="C424" t="n">
-        <v>10.17245060712269</v>
+        <v>10.21073299856303</v>
       </c>
       <c r="D424" t="n">
-        <v>6.515746508641589</v>
+        <v>6.805137408607466</v>
       </c>
       <c r="E424" t="n">
-        <v>7.962695509533596</v>
+        <v>8.836801899058369</v>
       </c>
       <c r="F424" t="n">
-        <v>6.448465153278704</v>
+        <v>6.229857353550415</v>
       </c>
       <c r="G424" t="n">
-        <v>3.065199134298247</v>
+        <v>2.759089195451311</v>
       </c>
       <c r="H424" t="n">
-        <v>4.303921773271342</v>
+        <v>3.727962388378065</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>28.00750459142433</v>
+        <v>28.75046231754472</v>
       </c>
       <c r="C425" t="n">
-        <v>10.15201048589299</v>
+        <v>10.19021575001338</v>
       </c>
       <c r="D425" t="n">
-        <v>6.511130538194158</v>
+        <v>6.800316232893309</v>
       </c>
       <c r="E425" t="n">
-        <v>7.960938988584076</v>
+        <v>8.834852426429009</v>
       </c>
       <c r="F425" t="n">
-        <v>6.448148736859817</v>
+        <v>6.229551686203703</v>
       </c>
       <c r="G425" t="n">
-        <v>3.065175515756017</v>
+        <v>2.759067943954732</v>
       </c>
       <c r="H425" t="n">
-        <v>4.668884563661607</v>
+        <v>4.044592451270171</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>27.72080493165109</v>
+        <v>28.45600015191742</v>
       </c>
       <c r="C426" t="n">
-        <v>10.1299539556001</v>
+        <v>10.16807599944253</v>
       </c>
       <c r="D426" t="n">
-        <v>6.506006384434611</v>
+        <v>6.794964287314086</v>
       </c>
       <c r="E426" t="n">
-        <v>7.958938183059283</v>
+        <v>8.832631837728426</v>
       </c>
       <c r="F426" t="n">
-        <v>6.447777956834353</v>
+        <v>6.229193501632632</v>
       </c>
       <c r="G426" t="n">
-        <v>3.065146997146497</v>
+        <v>2.759042283341308</v>
       </c>
       <c r="H426" t="n">
-        <v>5.034800718702118</v>
+        <v>4.36212928731671</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>27.42996245053767</v>
+        <v>28.15728960416575</v>
       </c>
       <c r="C427" t="n">
-        <v>10.1061864971503</v>
+        <v>10.14421887202049</v>
       </c>
       <c r="D427" t="n">
-        <v>6.5003279043141</v>
+        <v>6.789033378549793</v>
       </c>
       <c r="E427" t="n">
-        <v>7.956663524311747</v>
+        <v>8.830107317000852</v>
       </c>
       <c r="F427" t="n">
-        <v>6.447344394155317</v>
+        <v>6.228774666654661</v>
       </c>
       <c r="G427" t="n">
-        <v>3.065112640342975</v>
+        <v>2.759011369448439</v>
       </c>
       <c r="H427" t="n">
-        <v>5.401677685921181</v>
+        <v>4.680579997976624</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>27.1349801101078</v>
+        <v>27.85433380302977</v>
       </c>
       <c r="C428" t="n">
-        <v>10.08061129192522</v>
+        <v>10.11854718478368</v>
       </c>
       <c r="D428" t="n">
-        <v>6.494045985111351</v>
+        <v>6.782472211720242</v>
       </c>
       <c r="E428" t="n">
-        <v>7.954082530518764</v>
+        <v>8.827242815240361</v>
       </c>
       <c r="F428" t="n">
-        <v>6.446838493407986</v>
+        <v>6.228285950291363</v>
       </c>
       <c r="G428" t="n">
-        <v>3.065071344525205</v>
+        <v>2.758974211709577</v>
       </c>
       <c r="H428" t="n">
-        <v>5.769525940111753</v>
+        <v>4.999954320811787</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>26.83586733060268</v>
+        <v>27.5471425035917</v>
       </c>
       <c r="C429" t="n">
-        <v>10.05312947985187</v>
+        <v>10.09096170567924</v>
       </c>
       <c r="D429" t="n">
-        <v>6.487108495894215</v>
+        <v>6.77522633969819</v>
       </c>
       <c r="E429" t="n">
-        <v>7.951159613346676</v>
+        <v>8.823998835833768</v>
       </c>
       <c r="F429" t="n">
-        <v>6.44624943787083</v>
+        <v>6.227716903068125</v>
       </c>
       <c r="G429" t="n">
-        <v>3.065021821396938</v>
+        <v>2.75892965085193</v>
       </c>
       <c r="H429" t="n">
-        <v>6.138358990349178</v>
+        <v>5.320264638339939</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>26.53264031165618</v>
+        <v>27.23573241662822</v>
       </c>
       <c r="C430" t="n">
-        <v>10.02364045024054</v>
+        <v>10.06136144550046</v>
       </c>
       <c r="D430" t="n">
-        <v>6.479460256119433</v>
+        <v>6.767238130322436</v>
       </c>
       <c r="E430" t="n">
-        <v>7.947855884452978</v>
+        <v>8.820332219824717</v>
       </c>
       <c r="F430" t="n">
-        <v>6.445565015372357</v>
+        <v>6.227055727421694</v>
       </c>
       <c r="G430" t="n">
-        <v>3.064962567282523</v>
+        <v>2.758876333785345</v>
       </c>
       <c r="H430" t="n">
-        <v>6.508193375519769</v>
+        <v>5.641525976947356</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>26.22532234518255</v>
+        <v>26.92012752945276</v>
       </c>
       <c r="C431" t="n">
-        <v>9.992042165765101</v>
+        <v>10.02964398308889</v>
       </c>
       <c r="D431" t="n">
-        <v>6.471043023494917</v>
+        <v>6.758446753729569</v>
       </c>
       <c r="E431" t="n">
-        <v>7.944128963836206</v>
+        <v>8.816195933229549</v>
       </c>
       <c r="F431" t="n">
-        <v>6.444771474970672</v>
+        <v>6.226289139241496</v>
       </c>
       <c r="G431" t="n">
-        <v>3.06489183182718</v>
+        <v>2.75881268543451</v>
       </c>
       <c r="H431" t="n">
-        <v>6.879048647644073</v>
+        <v>5.963755995226752</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>25.91394411788572</v>
+        <v>26.60035941610435</v>
       </c>
       <c r="C432" t="n">
-        <v>9.958231519686084</v>
+        <v>9.99570582390445</v>
       </c>
       <c r="D432" t="n">
-        <v>6.461795503240563</v>
+        <v>6.748788192035147</v>
       </c>
       <c r="E432" t="n">
-        <v>7.939932792290043</v>
+        <v>8.811538858909298</v>
       </c>
       <c r="F432" t="n">
-        <v>6.44385337461519</v>
+        <v>6.225402220698548</v>
       </c>
       <c r="G432" t="n">
-        <v>3.064807583021883</v>
+        <v>2.758736877263238</v>
       </c>
       <c r="H432" t="n">
-        <v>7.250947342251265</v>
+        <v>6.286974961081263</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>25.59854400124522</v>
+        <v>26.27646753468208</v>
       </c>
       <c r="C433" t="n">
-        <v>9.922104726121022</v>
+        <v>9.959442791766529</v>
       </c>
       <c r="D433" t="n">
-        <v>6.45165338086903</v>
+        <v>6.738195273579966</v>
       </c>
       <c r="E433" t="n">
-        <v>7.935217450464474</v>
+        <v>8.806305595775415</v>
       </c>
       <c r="F433" t="n">
-        <v>6.442793420101627</v>
+        <v>6.224378264662602</v>
       </c>
       <c r="G433" t="n">
-        <v>3.064707468274425</v>
+        <v>2.758646792240227</v>
       </c>
       <c r="H433" t="n">
-        <v>7.623914935034464</v>
+        <v>6.611205716911448</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>25.27916832679057</v>
+        <v>25.94849950958132</v>
       </c>
       <c r="C434" t="n">
-        <v>9.883557742848664</v>
+        <v>9.92075045325131</v>
       </c>
       <c r="D434" t="n">
-        <v>6.44054938056406</v>
+        <v>6.726597733911152</v>
       </c>
       <c r="E434" t="n">
-        <v>7.929928987278654</v>
+        <v>8.800436268375293</v>
       </c>
       <c r="F434" t="n">
-        <v>6.441572295802799</v>
+        <v>6.223198611173538</v>
       </c>
       <c r="G434" t="n">
-        <v>3.064588771253786</v>
+        <v>2.758539986000637</v>
       </c>
       <c r="H434" t="n">
-        <v>7.997979783989603</v>
+        <v>6.936473632177842</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>24.95587164444934</v>
+        <v>25.61651139635991</v>
       </c>
       <c r="C435" t="n">
-        <v>9.842486725798345</v>
+        <v>9.87952457389301</v>
       </c>
       <c r="D435" t="n">
-        <v>6.428413351158829</v>
+        <v>6.713922305589501</v>
       </c>
       <c r="E435" t="n">
-        <v>7.924009260662977</v>
+        <v>8.793866350162014</v>
       </c>
       <c r="F435" t="n">
-        <v>6.440168487848657</v>
+        <v>6.221842476617566</v>
       </c>
       <c r="G435" t="n">
-        <v>3.064448364246533</v>
+        <v>2.758413643968259</v>
       </c>
       <c r="H435" t="n">
-        <v>8.373173056216114</v>
+        <v>7.262806542609637</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>24.62871696174134</v>
+        <v>25.28056792694957</v>
       </c>
       <c r="C436" t="n">
-        <v>9.798788514023819</v>
+        <v>9.835661604983931</v>
       </c>
       <c r="D436" t="n">
-        <v>6.415172381608293</v>
+        <v>6.700092838800954</v>
       </c>
       <c r="E436" t="n">
-        <v>7.917395793826572</v>
+        <v>8.786526503995422</v>
       </c>
       <c r="F436" t="n">
-        <v>6.438558100638995</v>
+        <v>6.220286776461573</v>
       </c>
       <c r="G436" t="n">
-        <v>3.064282655782228</v>
+        <v>2.758264534219471</v>
       </c>
       <c r="H436" t="n">
-        <v>8.749528638533063</v>
+        <v>7.590234675307948</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>24.29777596159657</v>
+        <v>24.94074273293331</v>
       </c>
       <c r="C437" t="n">
-        <v>9.752361143596698</v>
+        <v>9.789059199402526</v>
       </c>
       <c r="D437" t="n">
-        <v>6.400750947705638</v>
+        <v>6.685030454600082</v>
       </c>
       <c r="E437" t="n">
-        <v>7.910021650445532</v>
+        <v>8.778342443642661</v>
       </c>
       <c r="F437" t="n">
-        <v>6.436714667800387</v>
+        <v>6.218505942619465</v>
       </c>
       <c r="G437" t="n">
-        <v>3.064087533310866</v>
+        <v>2.758088955893635</v>
       </c>
       <c r="H437" t="n">
-        <v>9.127083031044812</v>
+        <v>7.918790558974305</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>23.96312919659553</v>
+        <v>24.59711854463133</v>
       </c>
       <c r="C438" t="n">
-        <v>9.703104388481115</v>
+        <v>9.73961675452378</v>
       </c>
       <c r="D438" t="n">
-        <v>6.385071091612848</v>
+        <v>6.668653732425084</v>
       </c>
       <c r="E438" t="n">
-        <v>7.901815332341003</v>
+        <v>8.769234820239049</v>
       </c>
       <c r="F438" t="n">
-        <v>6.434608958943939</v>
+        <v>6.216471736760959</v>
       </c>
       <c r="G438" t="n">
-        <v>3.063858300750104</v>
+        <v>2.757882682985751</v>
       </c>
       <c r="H438" t="n">
-        <v>9.505875222771264</v>
+        <v>8.248508918477858</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>23.62486625747162</v>
+        <v>24.24978736377937</v>
       </c>
       <c r="C439" t="n">
-        <v>9.650920326072578</v>
+        <v>9.687235979886005</v>
       </c>
       <c r="D439" t="n">
-        <v>6.368052635557802</v>
+        <v>6.65087893329678</v>
       </c>
       <c r="E439" t="n">
-        <v>7.89270070335875</v>
+        <v>8.759119137828375</v>
       </c>
       <c r="F439" t="n">
-        <v>6.432208783840123</v>
+        <v>6.21415306112421</v>
       </c>
       <c r="G439" t="n">
-        <v>3.06358961076412</v>
+        <v>2.757640903397001</v>
       </c>
       <c r="H439" t="n">
-        <v>9.88594654844576</v>
+        <v>8.579426552963724</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>23.28308591377317</v>
+        <v>23.89885060764378</v>
       </c>
       <c r="C440" t="n">
-        <v>9.595713924704263</v>
+        <v>9.631821486907345</v>
       </c>
       <c r="D440" t="n">
-        <v>6.349613430795353</v>
+        <v>6.631620259847549</v>
       </c>
       <c r="E440" t="n">
-        <v>7.882596943266766</v>
+        <v>8.747905702218134</v>
       </c>
       <c r="F440" t="n">
-        <v>6.429478795898816</v>
+        <v>6.211515768656272</v>
       </c>
       <c r="G440" t="n">
-        <v>3.063275391690685</v>
+        <v>2.757358153167866</v>
       </c>
       <c r="H440" t="n">
-        <v>10.26734052557437</v>
+        <v>8.911582196696052</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>22.93789622466068</v>
+        <v>23.54441922249709</v>
       </c>
       <c r="C441" t="n">
-        <v>9.537393650048264</v>
+        <v>9.573281397567705</v>
       </c>
       <c r="D441" t="n">
-        <v>6.329669642637481</v>
+        <v>6.610790154021025</v>
       </c>
       <c r="E441" t="n">
-        <v>7.871418535548998</v>
+        <v>8.735499607453411</v>
       </c>
       <c r="F441" t="n">
-        <v>6.426380297123502</v>
+        <v>6.208522474576732</v>
       </c>
       <c r="G441" t="n">
-        <v>3.062908769098589</v>
+        <v>2.757028245877704</v>
       </c>
       <c r="H441" t="n">
-        <v>10.6501026708498</v>
+        <v>9.245016361828503</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>22.58941461791233</v>
+        <v>23.18661376447806</v>
       </c>
       <c r="C442" t="n">
-        <v>9.475872086971682</v>
+        <v>9.511527968603168</v>
       </c>
       <c r="D442" t="n">
-        <v>6.308136072029098</v>
+        <v>6.588299632940081</v>
       </c>
       <c r="E442" t="n">
-        <v>7.859075292984983</v>
+        <v>8.721800764226126</v>
       </c>
       <c r="F442" t="n">
-        <v>6.422871046994379</v>
+        <v>6.205132371735944</v>
       </c>
       <c r="G442" t="n">
-        <v>3.062481982035174</v>
+        <v>2.756644197264352</v>
       </c>
       <c r="H442" t="n">
-        <v>11.03428029501852</v>
+        <v>9.579771162298973</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>22.23776793532686</v>
+        <v>22.82556444597901</v>
       </c>
       <c r="C443" t="n">
-        <v>9.411066573053791</v>
+        <v>9.446478227404768</v>
       </c>
       <c r="D443" t="n">
-        <v>6.284926513782941</v>
+        <v>6.564058663061485</v>
       </c>
       <c r="E443" t="n">
-        <v>7.845472424861533</v>
+        <v>8.706703974487853</v>
       </c>
       <c r="F443" t="n">
-        <v>6.418905078021412</v>
+        <v>6.201301052415869</v>
       </c>
       <c r="G443" t="n">
-        <v>3.061986294113433</v>
+        <v>2.756198145198128</v>
       </c>
       <c r="H443" t="n">
-        <v>11.419922275315</v>
+        <v>9.915890118058222</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>21.88309244284904</v>
+        <v>22.46141114584352</v>
       </c>
       <c r="C444" t="n">
-        <v>9.342899839635313</v>
+        <v>9.378054615477163</v>
       </c>
       <c r="D444" t="n">
-        <v>6.259954151191628</v>
+        <v>6.537976572322573</v>
       </c>
       <c r="E444" t="n">
-        <v>7.830510649558044</v>
+        <v>8.690099056418418</v>
       </c>
       <c r="F444" t="n">
-        <v>6.414432520989856</v>
+        <v>6.196980339493519</v>
       </c>
       <c r="G444" t="n">
-        <v>3.061411899690496</v>
+        <v>2.755681265236703</v>
       </c>
       <c r="H444" t="n">
-        <v>11.80707880460278</v>
+        <v>10.25341793886432</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>21.52553380389773</v>
+        <v>22.09430338181562</v>
       </c>
       <c r="C445" t="n">
-        <v>9.27130065595991</v>
+        <v>9.306185635000551</v>
       </c>
       <c r="D445" t="n">
-        <v>6.233131986310497</v>
+        <v>6.509962499542086</v>
       </c>
       <c r="E445" t="n">
-        <v>7.814086356076762</v>
+        <v>8.671871023713384</v>
       </c>
       <c r="F445" t="n">
-        <v>6.40939944319175</v>
+        <v>6.192118130148715</v>
       </c>
       <c r="G445" t="n">
-        <v>3.060747825504289</v>
+        <v>2.755083682090793</v>
       </c>
       <c r="H445" t="n">
-        <v>12.19580111640003</v>
+        <v>10.59240028690729</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>21.16524701454927</v>
+        <v>21.72440024385938</v>
       </c>
       <c r="C446" t="n">
-        <v>9.19620447168616</v>
+        <v>9.230806493756418</v>
       </c>
       <c r="D446" t="n">
-        <v>6.20437330475518</v>
+        <v>6.479925879867604</v>
       </c>
       <c r="E446" t="n">
-        <v>7.796091817849091</v>
+        <v>8.651900322887064</v>
       </c>
       <c r="F446" t="n">
-        <v>6.403747703190737</v>
+        <v>6.186658255543297</v>
       </c>
       <c r="G446" t="n">
-        <v>3.059981828262605</v>
+        <v>2.754394377445295</v>
       </c>
       <c r="H446" t="n">
-        <v>12.58614118501835</v>
+        <v>10.93288351757291</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>20.80239629942003</v>
+        <v>21.35187028716347</v>
       </c>
       <c r="C447" t="n">
-        <v>9.117554052801093</v>
+        <v>9.151859743429407</v>
       </c>
       <c r="D447" t="n">
-        <v>6.173592173387557</v>
+        <v>6.447776964570831</v>
       </c>
       <c r="E447" t="n">
-        <v>7.776415461835755</v>
+        <v>8.630063131939778</v>
       </c>
       <c r="F447" t="n">
-        <v>6.397414825897651</v>
+        <v>6.180540360120988</v>
       </c>
       <c r="G447" t="n">
-        <v>3.059100288818145</v>
+        <v>2.753601094705906</v>
       </c>
       <c r="H447" t="n">
-        <v>12.97815140011131</v>
+        <v>11.27491439771346</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>20.43715496729882</v>
+        <v>20.97689138385784</v>
       </c>
       <c r="C448" t="n">
-        <v>9.035300105758427</v>
+        <v>9.069295906089064</v>
       </c>
       <c r="D448" t="n">
-        <v>6.140703968778094</v>
+        <v>6.413427372984818</v>
       </c>
       <c r="E448" t="n">
-        <v>7.754942195549663</v>
+        <v>8.606231723306623</v>
       </c>
       <c r="F448" t="n">
-        <v>6.39033390193302</v>
+        <v>6.173699804369351</v>
       </c>
       <c r="G448" t="n">
-        <v>3.058088103713524</v>
+        <v>2.752690241376668</v>
       </c>
       <c r="H448" t="n">
-        <v>13.37188421501319</v>
+        <v>11.61853980086586</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>20.06970522580282</v>
+        <v>20.59965053269799</v>
       </c>
       <c r="C449" t="n">
-        <v>8.949401884500904</v>
+        <v>8.983074083490772</v>
       </c>
       <c r="D449" t="n">
-        <v>6.105625933837553</v>
+        <v>6.376790673860176</v>
       </c>
       <c r="E449" t="n">
-        <v>7.731553794165097</v>
+        <v>8.580274893488467</v>
       </c>
       <c r="F449" t="n">
-        <v>6.382433515412602</v>
+        <v>6.166067595039647</v>
       </c>
       <c r="G449" t="n">
-        <v>3.056928575040451</v>
+        <v>2.751646789918062</v>
       </c>
       <c r="H449" t="n">
-        <v>13.76739176835279</v>
+        <v>11.96380637894937</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>19.70023795456718</v>
+        <v>20.22034362621534</v>
       </c>
       <c r="C450" t="n">
-        <v>8.85982777491107</v>
+        <v>8.893162543719679</v>
       </c>
       <c r="D450" t="n">
-        <v>6.068277759513363</v>
+        <v>6.337782992897554</v>
       </c>
       <c r="E450" t="n">
-        <v>7.706129349335039</v>
+        <v>8.552058461164743</v>
       </c>
       <c r="F450" t="n">
-        <v>6.373637704405329</v>
+        <v>6.157570346929965</v>
       </c>
       <c r="G450" t="n">
-        <v>3.055603299725687</v>
+        <v>2.75045417808685</v>
       </c>
       <c r="H450" t="n">
-        <v>14.1647254785501</v>
+        <v>12.3107602100817</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>19.32895243672767</v>
+        <v>19.83917517508733</v>
       </c>
       <c r="C451" t="n">
-        <v>8.766555851171905</v>
+        <v>8.799539279638376</v>
       </c>
       <c r="D451" t="n">
-        <v>6.028582187952386</v>
+        <v>6.296323642698201</v>
       </c>
       <c r="E451" t="n">
-        <v>7.678545780722276</v>
+        <v>8.521445834903689</v>
       </c>
       <c r="F451" t="n">
-        <v>6.363865958371884</v>
+        <v>6.148130280393829</v>
       </c>
       <c r="G451" t="n">
-        <v>3.054092059530778</v>
+        <v>2.74909420991587</v>
       </c>
       <c r="H451" t="n">
-        <v>14.56393561095259</v>
+        <v>12.65944642228246</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>18.95605604871529</v>
+        <v>19.45635798974778</v>
       </c>
       <c r="C452" t="n">
-        <v>8.669574398512085</v>
+        <v>8.702192533592305</v>
       </c>
       <c r="D452" t="n">
-        <v>5.986465633050348</v>
+        <v>6.252335770871593</v>
       </c>
       <c r="E452" t="n">
-        <v>7.648678410562249</v>
+        <v>8.488298650822477</v>
       </c>
       <c r="F452" t="n">
-        <v>6.353033256889053</v>
+        <v>6.137665258733524</v>
       </c>
       <c r="G452" t="n">
-        <v>3.052372713230569</v>
+        <v>2.74754695865218</v>
       </c>
       <c r="H452" t="n">
-        <v>14.96507081753777</v>
+        <v>13.00990879298183</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/energy_use_matrix_total_tabula.xlsx
+++ b/Data/model_outputs_baseline/energy/energy_use_matrix_total_tabula.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>3.922058770551752</v>
+        <v>5.492632707754335</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>3.926638938181957</v>
+        <v>5.499046050334988</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>3.93128068414063</v>
+        <v>5.505544663430387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>3.935984809154875</v>
+        <v>5.512129637034153</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>3.940752122541918</v>
+        <v>5.518802072123171</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>3.945583442176943</v>
+        <v>5.525563080564389</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>3.950479594452614</v>
+        <v>5.532413785007606</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>3.95544141422995</v>
+        <v>5.539355318763616</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>3.960469744780259</v>
+        <v>5.546388825667322</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>3.965565437717736</v>
+        <v>5.553515459925096</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>3.970729352922479</v>
+        <v>5.560736385945974</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>3.975962358453579</v>
+        <v>5.568052778156225</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>3.981265330452014</v>
+        <v>5.575465820796686</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>3.986639153033055</v>
+        <v>5.58297670770254</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>3.992084718167947</v>
+        <v>5.590586642065027</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>3.99760292555462</v>
+        <v>5.598296836174752</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>4.003194682477227</v>
+        <v>5.606108511146211</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>4.008860903654305</v>
+        <v>5.614022896623263</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>4.014602511075434</v>
+        <v>5.622041230465212</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>4.02042043382625</v>
+        <v>5.630164758413412</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>4.026315607901725</v>
+        <v>5.638394733738127</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>4.032288976007679</v>
+        <v>5.646732416865642</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>4.038341487350499</v>
+        <v>5.65517907498554</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>4.044474097415113</v>
+        <v>5.663735981638284</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>4.050687767731314</v>
+        <v>5.672404416283124</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>4.056983465628532</v>
+        <v>5.681185663846652</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>4.063362163979313</v>
+        <v>5.690081014252241</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>4.069824840931676</v>
+        <v>5.699091761930777</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>4.076372479630722</v>
+        <v>5.708219205313213</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>4.083006067929843</v>
+        <v>5.717464646305524</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>4.08972659809197</v>
+        <v>5.726829389746727</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>4.0965350664814</v>
+        <v>5.736314742850955</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>4.103432473246753</v>
+        <v>5.745922014634292</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>4.11041982199577</v>
+        <v>5.755652515327709</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>4.117498119462649</v>
+        <v>5.765507555777021</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>4.124668375168803</v>
+        <v>5.775488446831528</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>4.131931601077879</v>
+        <v>5.785596498722468</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>4.139288811246105</v>
+        <v>5.795833020433171</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>4.146741021469019</v>
+        <v>5.806199319062531</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>4.154289248925798</v>
+        <v>5.81669669918377</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>4.161934511822329</v>
+        <v>5.82732646220047</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>4.169677829034615</v>
+        <v>5.83808990570218</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>4.177520219753732</v>
+        <v>5.848988322821869</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>4.185462703134043</v>
+        <v>5.860023001597834</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>4.193506297946278</v>
+        <v>5.871195224342611</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>4.201652022237165</v>
+        <v>5.882506267021777</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>4.209900892997542</v>
+        <v>5.893957398645659</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>4.218253925840782</v>
+        <v>5.905549880676941</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>4.226712134693602</v>
+        <v>5.917284966457522</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>4.235276531501327</v>
+        <v>5.929163900658042</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>4.243948125949815</v>
+        <v>5.941187918753549</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>4.252727925206303</v>
+        <v>5.953358246529019</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>4.26161693368149</v>
+        <v>5.965676099618548</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>4.27061615281535</v>
+        <v>5.978142683082127</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>4.279726580889063</v>
+        <v>5.990759191023956</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>4.288949212865662</v>
+        <v>6.003526806256542</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>4.298285040262035</v>
+        <v>6.01644670001473</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>4.307735051054855</v>
+        <v>6.029520031723973</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>4.317300229623171</v>
+        <v>6.042747948827226</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>4.326981556730409</v>
+        <v>6.056131586674848</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>4.336780009548515</v>
+        <v>6.069672068482035</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>4.346696561726951</v>
+        <v>6.083370505358227</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>4.356732183509461</v>
+        <v>6.097227996412982</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>4.366887841901213</v>
+        <v>6.111245628942823</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>4.377164500889191</v>
+        <v>6.12542447870354</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>4.387563121718516</v>
+        <v>6.139765610272376</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>4.398084663227395</v>
+        <v>6.154270077504337</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>4.40873008224334</v>
+        <v>6.16893892408715</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>4.419500334043246</v>
+        <v>6.183773184198784</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>4.430396372879823</v>
+        <v>6.198773883271787</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>4.441419152576808</v>
+        <v>6.213942038868244</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>4.452569627195243</v>
+        <v>6.229278661669187</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>4.46384875177308</v>
+        <v>6.244784756581867</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>4.475257483140098</v>
+        <v>6.260461323968476</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>4.486796780810162</v>
+        <v>6.276309360999182</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>4.498467607952495</v>
+        <v>6.292329863132553</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>4.51027093244362</v>
+        <v>6.308523825725808</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>4.522207728001413</v>
+        <v>6.324892245777241</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>4.534278975402405</v>
+        <v>6.341436123802834</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>4.546485663783439</v>
+        <v>6.358156465848577</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>4.558828792028398</v>
+        <v>6.375054285639805</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>4.57130937024057</v>
+        <v>6.392130606868521</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>4.583928421301009</v>
+        <v>6.409386465618991</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>4.596686982512837</v>
+        <v>6.42682291293181</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>4.609586107331373</v>
+        <v>6.444441017506025</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>4.622626867179482</v>
+        <v>6.462241868538471</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>4.635810353347438</v>
+        <v>6.480226578698939</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>4.649137678976167</v>
+        <v>6.498396287239532</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>4.662609981122481</v>
+        <v>6.516752163235805</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>4.676228422904606</v>
+        <v>6.535295408956881</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>4.689994195726004</v>
+        <v>6.554027263361425</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>4.703908521575112</v>
+        <v>6.572949005715373</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>4.717972655398376</v>
+        <v>6.592061959327292</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>4.732187887543604</v>
+        <v>6.611367495396441</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>4.746555546270263</v>
+        <v>6.63086703696804</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>4.761077000323199</v>
+        <v>6.65056206298996</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>4.775753661565738</v>
+        <v>6.670454112464273</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>4.790586987667968</v>
+        <v>6.690544788686821</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>4.805578484845597</v>
+        <v>6.710835763567212</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>4.820729710644517</v>
+        <v>6.731328782021339</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>4.836042276765927</v>
+        <v>6.752025666428092</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>4.85151785192656</v>
+        <v>6.772928321141214</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>4.86715816474824</v>
+        <v>6.794038737047009</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>4.882965006670879</v>
+        <v>6.815358996158221</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>4.898940234882617</v>
+        <v>6.836891276233836</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>4.915085775260701</v>
+        <v>6.858637855414363</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>4.931403625316408</v>
+        <v>6.880601116861643</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>4.947895857137182</v>
+        <v>6.902783553392107</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>4.964564620319017</v>
+        <v>6.925187772091941</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>4.981412144881785</v>
+        <v>6.94781649890256</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>4.998440744160416</v>
+        <v>6.970672583164477</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>5.015652817664374</v>
+        <v>6.993759002107403</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>5.033050853898055</v>
+        <v>7.017078865274586</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>5.050637433134618</v>
+        <v>7.040635418869039</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>5.06841523013562</v>
+        <v>7.064432050009299</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>5.086387016809089</v>
+        <v>7.088472290882605</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>5.104555664798426</v>
+        <v>7.11275982278319</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>5.122924147994782</v>
+        <v>7.137298480023459</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>5.141495544965587</v>
+        <v>7.162092253706438</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>5.16027304129206</v>
+        <v>7.187145295347301</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>5.17925993180859</v>
+        <v>7.212461920332851</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>5.198459622737307</v>
+        <v>7.238046611207578</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>5.217875633710997</v>
+        <v>7.263904020775439</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>5.237511599678166</v>
+        <v>7.290038975006997</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>5.257371272684101</v>
+        <v>7.316456475741933</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>5.277458523522049</v>
+        <v>7.343161703177263</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>5.297777343249212</v>
+        <v>7.370160018132588</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>5.318331844562284</v>
+        <v>7.397456964083721</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>5.339126263028022</v>
+        <v>7.425058268957111</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>5.360164958164339</v>
+        <v>7.452969846677969</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>5.381452414368286</v>
+        <v>7.481197798465705</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>5.402993241687351</v>
+        <v>7.509748413871093</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>5.424792176431251</v>
+        <v>7.538628171550246</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>5.446854081621869</v>
+        <v>7.567843739771578</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>5.469183947279299</v>
+        <v>7.597401976652303</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>5.491786890542824</v>
+        <v>7.627309930122411</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>5.514668155625869</v>
+        <v>7.657574837614542</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>5.537833113604865</v>
+        <v>7.688204125479361</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>5.561287262042198</v>
+        <v>7.719205408126724</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>5.585036224444337</v>
+        <v>7.750586486894208</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>5.609085749556467</v>
+        <v>7.782355348645056</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>5.633441710495944</v>
+        <v>7.814520164099009</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>5.658110103727</v>
+        <v>7.84708928590016</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>5.683097047880339</v>
+        <v>7.88007124642705</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>5.708408782421063</v>
+        <v>7.913474755351005</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>5.734051666169769</v>
+        <v>7.947308696949965</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>5.760032175681623</v>
+        <v>7.981582127185651</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>5.78635690348898</v>
+        <v>8.016304270552958</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>5.813032556213932</v>
+        <v>8.051484516711485</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>5.840065952557019</v>
+        <v>8.087132416909618</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>5.867464021169804</v>
+        <v>8.123257680212797</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>5.895233798418494</v>
+        <v>8.159870169548185</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>5.923382426047156</v>
+        <v>8.196979897578714</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>5.951917148748846</v>
+        <v>8.234597022420346</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>5.980845311653853</v>
+        <v>8.272731843216798</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>6.010174357744442</v>
+        <v>8.311394795587077</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>6.039911825205809</v>
+        <v>8.350596446961172</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>6.07006534472352</v>
+        <v>8.390347491820386</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>6.100642636737754</v>
+        <v>8.430658746858727</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>6.131651508665164</v>
+        <v>8.471541146082723</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>6.163099852099204</v>
+        <v>8.51300573586698</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>6.194995640000233</v>
+        <v>8.555063669983459</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>6.227346923886575</v>
+        <v>8.597726204622431</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>6.260161831038124</v>
+        <v>8.641004693423508</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>6.293448561723976</v>
+        <v>8.684910582535139</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>6.327215386465809</v>
+        <v>8.729455405721207</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>6.361470643348584</v>
+        <v>8.774650779533134</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>6.396222735390251</v>
+        <v>8.820508398566165</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>6.43148012798207</v>
+        <v>8.867040030818293</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>6.467251346411056</v>
+        <v>8.914257513169924</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>6.503544973475888</v>
+        <v>8.962172747002628</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>6.540369647207685</v>
+        <v>9.010797693974688</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>6.577734058706509</v>
+        <v>9.06014437197091</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>6.615646950104597</v>
+        <v>9.110224851243929</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>6.65411711266689</v>
+        <v>9.161051250763732</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>6.693153385039104</v>
+        <v>9.212635734791608</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>6.732764651653474</v>
+        <v>9.264990509694307</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>6.772959841301752</v>
+        <v>9.318127821013654</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>6.81374792588489</v>
+        <v>9.372059950806031</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>6.855137919348268</v>
+        <v>9.426799215265948</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>6.897138876811062</v>
+        <v>9.482357962646793</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>6.939759893897921</v>
+        <v>9.538748571491448</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>6.983010106280548</v>
+        <v>9.595983449184562</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>7.026898689436591</v>
+        <v>9.654075030837765</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>7.071434858632437</v>
+        <v>9.713035778517941</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>7.116627869136414</v>
+        <v>9.77287818082827</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>7.162487016668096</v>
+        <v>9.833614752850782</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>7.209021638089125</v>
+        <v>9.895258036458268</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>7.256241112340416</v>
+        <v>9.957820601002792</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>7.304154861630037</v>
+        <v>10.02131504438703</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>7.352772352875731</v>
+        <v>10.08575399452392</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>7.402103099405426</v>
+        <v>10.15115011118931</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>7.452156662918628</v>
+        <v>10.21751608827148</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>7.502942655711087</v>
+        <v>10.28486465642053</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>7.55447074316485</v>
+        <v>10.35320858609996</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>7.60675064650498</v>
+        <v>10.42256069104197</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>7.659792145824196</v>
+        <v>10.49293383210713</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>7.713605083375928</v>
+        <v>10.56434092154869</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>7.768199367136086</v>
+        <v>10.63679492768047</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>7.82358497463331</v>
+        <v>10.71030887994752</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>7.879771957047143</v>
+        <v>10.78489587439712</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>7.936770443573188</v>
+        <v>10.8605690795478</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>7.994590646052719</v>
+        <v>10.93734174265085</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>8.053242863868821</v>
+        <v>11.01522719634712</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>8.112737489103745</v>
+        <v>11.09423886570863</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>8.173085011956312</v>
+        <v>11.17439027566255</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>8.234296026416985</v>
+        <v>11.25569505879208</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>8.296381236198103</v>
+        <v>11.33816696350903</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>8.359351460916196</v>
+        <v>11.42181986259215</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>8.423217642523635</v>
+        <v>11.50666776208496</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>8.487990851986195</v>
+        <v>11.59272481054682</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>8.553682296203394</v>
+        <v>11.68000530865033</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>8.620303325168049</v>
+        <v>11.7685237191184</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>8.687865439361639</v>
+        <v>11.85829467699385</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>8.756380297381801</v>
+        <v>11.94933300023436</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>8.825859723798398</v>
+        <v>12.04165370062559</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>8.896315717234428</v>
+        <v>12.13527199500501</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>8.967760458668137</v>
+        <v>12.23020331678925</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>9.040206319952603</v>
+        <v>12.32646332779764</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>9.113665872549316</v>
+        <v>12.42406793036437</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>9.188151896471828</v>
+        <v>12.5230332797323</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>9.263677389436234</v>
+        <v>12.62337579672113</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>9.340255576214672</v>
+        <v>12.72511218066278</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>9.417899918188688</v>
+        <v>12.82825942259711</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>9.496624123098737</v>
+        <v>12.93283481872097</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>9.576442154986893</v>
+        <v>13.03885598408409</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>9.65736824432922</v>
+        <v>13.14634086652509</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>9.739416898354891</v>
+        <v>13.25530776084115</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>9.82260291154881</v>
+        <v>13.36577532318532</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>9.906941376334945</v>
+        <v>13.47776258568505</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>9.992447693937208</v>
+        <v>13.59128897127624</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>10.07913758541521</v>
+        <v>13.70637430874685</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>10.16702710287198</v>
+        <v>13.82303884798438</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>10.25613264083088</v>
+        <v>13.94130327542167</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>10.34647094777895</v>
+        <v>14.06118872967551</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>10.43805913787387</v>
+        <v>14.18271681737262</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>10.53091470281188</v>
+        <v>14.30590962915762</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>10.6250555238536</v>
+        <v>14.43078975587756</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>10.72049988400508</v>
+        <v>14.55738030493776</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>10.81726648035087</v>
+        <v>14.68570491682324</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>10.9153744365361</v>
+        <v>14.81578778178039</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>11.01484331539423</v>
+        <v>14.94765365665323</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>11.11569313171691</v>
+        <v>15.08132788186794</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>11.21794436516233</v>
+        <v>15.21683639856008</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>11.32161797329779</v>
+        <v>15.35420576583754</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>11.42673540477253</v>
+        <v>15.49346317817277</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>11.53331861261571</v>
+        <v>15.63463648291692</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>11.64139006765467</v>
+        <v>15.7777541979281</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>11.75097277204768</v>
+        <v>15.92284552930556</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>11.86209027292532</v>
+        <v>16.06994038922115</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>11.97476667613349</v>
+        <v>16.21906941383794</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>12.08902666007102</v>
+        <v>16.37026398130613</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>12.20489548961363</v>
+        <v>16.52355622982503</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>12.32239903011574</v>
+        <v>16.6789790757585</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>12.44156376148023</v>
+        <v>16.83656623179138</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>12.56241679228621</v>
+        <v>16.99635222511223</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>12.68498587396288</v>
+        <v>17.15837241560713</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>12.80929941499754</v>
+        <v>17.32266301404761</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>12.93538649516405</v>
+        <v>17.4892611002553</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>13.06327687975722</v>
+        <v>17.65820464122282</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>13.19300103381743</v>
+        <v>17.82953250917067</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>13.32459013632825</v>
+        <v>18.00328449951722</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>13.45807609436858</v>
+        <v>18.1795013487368</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>13.59349155719976</v>
+        <v>18.3582247520806</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>13.73086993026573</v>
+        <v>18.53949738113121</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>13.87024538908382</v>
+        <v>18.72336290116111</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>14.01165289300136</v>
+        <v>18.90986598826274</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>14.15512819879154</v>
+        <v>19.09905234621515</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>14.30070787406084</v>
+        <v>19.2909687230509</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>14.44842931043769</v>
+        <v>19.48566292728339</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>14.59833073651067</v>
+        <v>19.68318384375324</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>14.75045123048201</v>
+        <v>19.883581449049</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>14.90483073250074</v>
+        <v>20.08690682645532</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>15.06151005663703</v>
+        <v>20.29321218037878</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>15.22053090245742</v>
+        <v>20.50255085019861</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>15.38193586615845</v>
+        <v>20.71497732348687</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>15.54576845121355</v>
+        <v>20.93054724853942</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>15.71207307848587</v>
+        <v>21.14931744615629</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>15.88089509575751</v>
+        <v>21.3713459206066</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>16.0522807866225</v>
+        <v>21.59669186971027</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>16.22627737868924</v>
+        <v>21.82541569396555</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>16.40293305103485</v>
+        <v>22.057579004648</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>16.58229694085165</v>
+        <v>22.29324463080353</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>16.76441914922336</v>
+        <v>22.53247662505456</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>16.94935074596609</v>
+        <v>22.77534026813548</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>17.13714377346631</v>
+        <v>23.02190207206983</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>17.32785124944581</v>
+        <v>23.27222978189872</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>17.52152716858093</v>
+        <v>23.52639237586687</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>17.71822650290054</v>
+        <v>23.78446006396886</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>17.91800520088526</v>
+        <v>24.04650428475621</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>18.1209201851877</v>
+        <v>24.31259770030164</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>18.32702934889088</v>
+        <v>24.58281418921464</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>18.53639155022056</v>
+        <v>24.85722883760006</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>18.74906660562383</v>
+        <v>25.13591792784753</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>18.96511528112545</v>
+        <v>25.41895892513851</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>19.18459928187058</v>
+        <v>25.70643046155428</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>19.40758123976154</v>
+        <v>25.99841231766706</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>19.63412469909376</v>
+        <v>26.29498540149349</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>19.86429410009573</v>
+        <v>26.59623172468946</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>20.09815476027572</v>
+        <v>26.90223437586284</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>20.33577285347733</v>
+        <v>27.21307749088004</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>20.57721538654579</v>
+        <v>27.43036151308731</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>20.82255017350546</v>
+        <v>27.65133001966648</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>21.07184580714994</v>
+        <v>27.87605060101795</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>21.32517162794593</v>
+        <v>28.10459158275748</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>21.58259769015247</v>
+        <v>28.33702199022897</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>21.84419472505856</v>
+        <v>28.5734115102248</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>22.11003410124325</v>
+        <v>28.8138304498221</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>22.38018778176438</v>
+        <v>29.0583496922466</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>22.65472827818408</v>
+        <v>29.30704064967667</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>22.93372860134236</v>
+        <v>29.55997521290402</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>23.21726220879332</v>
+        <v>29.81722569777062</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>23.50540294882191</v>
+        <v>30.07886478830471</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>23.79822500096436</v>
+        <v>30.3449654764843</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>24.09580281295982</v>
+        <v>30.61560099856056</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>24.39821103406651</v>
+        <v>30.89084476787984</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>24.70552444468216</v>
+        <v>31.17077030414898</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>25.01781788221522</v>
+        <v>31.4554511590959</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>25.33516616316066</v>
+        <v>31.74496083848418</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>25.65764400134338</v>
+        <v>32.03937272044999</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>25.98532592229978</v>
+        <v>32.338759970137</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>26.31828617377944</v>
+        <v>32.64319545061662</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>26.65659863235718</v>
+        <v>32.95275163008832</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>27.0003367061595</v>
+        <v>33.2675004853699</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>27.34957323371835</v>
+        <v>33.58751340169479</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>27.70438037898014</v>
+        <v>33.91286106884985</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>28.06482952250991</v>
+        <v>34.24361337369761</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>28.43099114894444</v>
+        <v>34.57983928914217</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>28.80293473076359</v>
+        <v>34.92160675961173</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>29.18072860846332</v>
+        <v>35.2689825831461</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>29.56443986723081</v>
+        <v>35.62203229019305</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>29.95413421023718</v>
+        <v>35.98082001923359</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>30.34987582868195</v>
+        <v>36.34540838937311</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>30.75172726873911</v>
+        <v>36.71585837005244</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>31.15974929557406</v>
+        <v>37.09222914804999</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>31.57400075461767</v>
+        <v>37.47457799196513</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>31.99453843030341</v>
+        <v>37.86296011438996</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>32.4214169024908</v>
+        <v>38.2574285319951</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>32.85468840081925</v>
+        <v>38.65803392377526</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>33.29440265725311</v>
+        <v>39.06482448771581</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>33.74060675709957</v>
+        <v>39.47784579616278</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>34.19334498879831</v>
+        <v>39.89714065019533</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>34.6526586928011</v>
+        <v>40.32274893331795</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>35.1185861098776</v>
+        <v>40.75470746480757</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>35.59116222920028</v>
+        <v>41.19304985306663</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>36.07041863657989</v>
+        <v>41.63780634935146</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>36.55638336323744</v>
+        <v>42.08900370225768</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>37.04908073551557</v>
+        <v>42.546665013363</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>37.54853122594516</v>
+        <v>43.01080959443735</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>38.05475130609705</v>
+        <v>43.48145282664586</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>38.5677533016607</v>
+        <v>43.95860602217913</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>39.08754525020162</v>
+        <v>44.44227628875657</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>39.61413076205863</v>
+        <v>44.93246639745535</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>40.14750888484954</v>
+        <v>45.42917465432502</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>40.68767397205941</v>
+        <v>45.93239477625172</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>41.23461555618829</v>
+        <v>46.44211577153931</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>41.12089660591916</v>
+        <v>46.29090020465513</v>
       </c>
       <c r="C358" t="n">
         <v>0.6420450844470973</v>
@@ -9762,7 +9762,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>41.00592977003581</v>
+        <v>46.13816044785924</v>
       </c>
       <c r="C359" t="n">
         <v>1.291746633146618</v>
@@ -9788,7 +9788,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>40.88969133478501</v>
+        <v>45.98387264639673</v>
       </c>
       <c r="C360" t="n">
         <v>1.949102051233565</v>
@@ -9814,7 +9814,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>40.77215687423438</v>
+        <v>45.82801237679073</v>
       </c>
       <c r="C361" t="n">
         <v>2.614104354139997</v>
@@ -9840,7 +9840,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>40.65330123080056</v>
+        <v>45.67055463539555</v>
       </c>
       <c r="C362" t="n">
         <v>3.286742093869898</v>
@@ -9866,7 +9866,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>40.53309849537681</v>
+        <v>45.51147382662256</v>
       </c>
       <c r="C363" t="n">
         <v>3.966999292780163</v>
@@ -9892,7 +9892,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>40.41152198708648</v>
+        <v>45.35074375084763</v>
       </c>
       <c r="C364" t="n">
         <v>4.654855385266143</v>
@@ -9918,7 +9918,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>40.28854423269501</v>
+        <v>45.18833759201593</v>
       </c>
       <c r="C365" t="n">
         <v>5.350285167728251</v>
@@ -9944,7 +9944,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>40.16413694572044</v>
+        <v>45.02422790496335</v>
       </c>
       <c r="C366" t="n">
         <v>6.053258757173245</v>
@@ -9970,7 +9970,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>40.03827100529043</v>
+        <v>44.85838660248418</v>
       </c>
       <c r="C367" t="n">
         <v>6.763741558777882</v>
@@ -9996,7 +9996,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>39.91091643480161</v>
+        <v>44.69078494217912</v>
       </c>
       <c r="C368" t="n">
         <v>7.48169424271144</v>
@@ -10022,7 +10022,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>39.78204238044734</v>
+        <v>44.52139351312839</v>
       </c>
       <c r="C369" t="n">
         <v>8.207072730482787</v>
@@ -10048,7 +10048,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>39.65161708968914</v>
+        <v>44.35018222244286</v>
       </c>
       <c r="C370" t="n">
         <v>8.939828191040272</v>
@@ -10074,7 +10074,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>39.51960788975861</v>
+        <v>44.17712028175693</v>
       </c>
       <c r="C371" t="n">
         <v>9.67990704681513</v>
@@ -10100,7 +10100,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>39.38598116628778</v>
+        <v>44.00217619373725</v>
       </c>
       <c r="C372" t="n">
         <v>10.42725098985743</v>
@@ -10126,7 +10126,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>39.25070234217895</v>
+        <v>43.82531773869347</v>
       </c>
       <c r="C373" t="n">
         <v>10.42719079373694</v>
@@ -10152,7 +10152,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>39.11373585683822</v>
+        <v>43.64651196139093</v>
       </c>
       <c r="C374" t="n">
         <v>10.42712114244869</v>
@@ -10178,7 +10178,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>38.97504514591059</v>
+        <v>43.46572515817682</v>
       </c>
       <c r="C375" t="n">
         <v>10.42704065503674</v>
@@ -10204,7 +10204,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>38.83459262167083</v>
+        <v>43.28292286454829</v>
       </c>
       <c r="C376" t="n">
         <v>10.42694776602911</v>
@@ -10230,7 +10230,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>38.69233965423864</v>
+        <v>43.09806984330449</v>
       </c>
       <c r="C377" t="n">
         <v>10.42684070347271</v>
@@ -10256,7 +10256,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>38.54824655380464</v>
+        <v>42.91113007344249</v>
       </c>
       <c r="C378" t="n">
         <v>10.42671746475246</v>
@@ -10282,7 +10282,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>38.4022725540699</v>
+        <v>42.72206673997237</v>
       </c>
       <c r="C379" t="n">
         <v>10.42657579002762</v>
@@ -10308,7 +10308,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>38.25437579712047</v>
+        <v>42.53084222484623</v>
       </c>
       <c r="C380" t="n">
         <v>10.42641313311314</v>
@@ -10334,7 +10334,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>38.10451331997664</v>
+        <v>42.33741809921344</v>
       </c>
       <c r="C381" t="n">
         <v>10.42622662963037</v>
@@ -10360,7 +10360,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>37.95264104307605</v>
+        <v>42.1417551172339</v>
       </c>
       <c r="C382" t="n">
         <v>10.42601306224903</v>
@@ -10386,7 +10386,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>37.79871376096862</v>
+        <v>41.94381321170066</v>
       </c>
       <c r="C383" t="n">
         <v>10.42576882284113</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>37.64268513552178</v>
+        <v>41.74355149174327</v>
       </c>
       <c r="C384" t="n">
         <v>10.42548987136844</v>
@@ -10438,7 +10438,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>37.48450769195382</v>
+        <v>41.5409282429033</v>
       </c>
       <c r="C385" t="n">
         <v>10.42517169132798</v>
@@ -10464,7 +10464,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>37.32413281803346</v>
+        <v>41.33590092989404</v>
       </c>
       <c r="C386" t="n">
         <v>10.42480924158493</v>
@@ -10490,7 +10490,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>37.16151076680266</v>
+        <v>41.12842620237637</v>
       </c>
       <c r="C387" t="n">
         <v>10.42439690442997</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>36.99659066320007</v>
+        <v>40.9184599041027</v>
       </c>
       <c r="C388" t="n">
         <v>10.42392842970875</v>
@@ -10542,7 +10542,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>36.82932051497972</v>
+        <v>40.7059570858004</v>
       </c>
       <c r="C389" t="n">
         <v>10.42339687488474</v>
@@ -10568,7 +10568,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>36.6596472283385</v>
+        <v>40.49087202218434</v>
       </c>
       <c r="C390" t="n">
         <v>10.42279454091367</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>36.48751662868173</v>
+        <v>40.27315823350673</v>
       </c>
       <c r="C391" t="n">
         <v>10.42211290382897</v>
@@ -10620,7 +10620,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>36.3128734869717</v>
+        <v>40.05276851206729</v>
       </c>
       <c r="C392" t="n">
         <v>10.42134254196216</v>
@@ -10646,7 +10646,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>36.13566155211738</v>
+        <v>39.82965495412268</v>
       </c>
       <c r="C393" t="n">
         <v>10.42047305875168</v>
@@ -10672,7 +10672,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>35.95582358987473</v>
+        <v>39.60376899764617</v>
       </c>
       <c r="C394" t="n">
         <v>10.41949300112704</v>
@@ -10698,7 +10698,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>35.77330142873684</v>
+        <v>39.37506146640016</v>
       </c>
       <c r="C395" t="n">
         <v>10.41838977349405</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>35.58803601329848</v>
+        <v>39.14348262079002</v>
       </c>
       <c r="C396" t="n">
         <v>10.41714954739011</v>
@@ -10750,7 +10750,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>35.39996746558368</v>
+        <v>38.9089822159752</v>
       </c>
       <c r="C397" t="n">
         <v>10.41575716692742</v>
@@ -10776,7 +10776,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>35.20903515482525</v>
+        <v>38.67150956771381</v>
       </c>
       <c r="C398" t="n">
         <v>10.41419605019551</v>
@@ -10802,7 +10802,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>35.01517777618017</v>
+        <v>38.43101362641504</v>
       </c>
       <c r="C399" t="n">
         <v>10.41244808685375</v>
@@ -10828,7 +10828,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>34.81833343885815</v>
+        <v>38.18744305986858</v>
       </c>
       <c r="C400" t="n">
         <v>10.41049353220869</v>
@@ -10854,7 +10854,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>34.61843976412767</v>
+        <v>37.94074634510888</v>
       </c>
       <c r="C401" t="n">
         <v>10.40831089814064</v>
@@ -10880,7 +10880,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>34.41543399364674</v>
+        <v>37.69087186985858</v>
       </c>
       <c r="C402" t="n">
         <v>10.40587684131779</v>
@@ -10906,7 +10906,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>34.20925310854331</v>
+        <v>37.43776804397314</v>
       </c>
       <c r="C403" t="n">
         <v>10.40316604921564</v>
@@ -10932,7 +10932,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>33.99983395964284</v>
+        <v>37.18138342128564</v>
       </c>
       <c r="C404" t="n">
         <v>10.40015112454236</v>
@@ -10958,7 +10958,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>33.78711340920645</v>
+        <v>36.92166683221759</v>
       </c>
       <c r="C405" t="n">
         <v>10.39680246875768</v>
@@ -10984,7 +10984,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>33.57102848450459</v>
+        <v>36.6585675274862</v>
       </c>
       <c r="C406" t="n">
         <v>10.39308816546313</v>
@@ -11010,7 +11010,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>33.35151654350424</v>
+        <v>36.39203533319336</v>
       </c>
       <c r="C407" t="n">
         <v>10.38897386453404</v>
@@ -11036,7 +11036,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>33.12851545289737</v>
+        <v>36.12202081753473</v>
       </c>
       <c r="C408" t="n">
         <v>10.38442266795754</v>
@@ -11062,7 +11062,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>32.90196377863804</v>
+        <v>35.84847546930835</v>
       </c>
       <c r="C409" t="n">
         <v>10.3793950184361</v>
@@ -11088,7 +11088,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>32.67180098909226</v>
+        <v>35.57135188834218</v>
       </c>
       <c r="C410" t="n">
         <v>10.37384859190998</v>
@@ -11114,7 +11114,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>32.43796767083185</v>
+        <v>35.29060398788915</v>
       </c>
       <c r="C411" t="n">
         <v>10.36773819524484</v>
@@ -11140,7 +11140,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>32.20040575702627</v>
+        <v>35.00618720896394</v>
       </c>
       <c r="C412" t="n">
         <v>10.36101567042065</v>
@@ -11166,7 +11166,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>31.95905876830176</v>
+        <v>34.7180587465128</v>
       </c>
       <c r="C413" t="n">
         <v>10.35362980664278</v>
@@ -11192,7 +11192,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>31.7138720658465</v>
+        <v>34.42617778722033</v>
       </c>
       <c r="C414" t="n">
         <v>10.34552626187608</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>31.46479311644443</v>
+        <v>34.13050575866265</v>
       </c>
       <c r="C415" t="n">
         <v>10.33664749537397</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>31.21177176901815</v>
+        <v>33.83100658941751</v>
       </c>
       <c r="C416" t="n">
         <v>10.32693271283746</v>
@@ -11270,7 +11270,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>30.95476054215522</v>
+        <v>33.52764697963654</v>
       </c>
       <c r="C417" t="n">
         <v>10.31631782589029</v>
@@ -11296,7 +11296,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>30.69371492198002</v>
+        <v>33.22039668147666</v>
       </c>
       <c r="C418" t="n">
         <v>10.3047354275952</v>
@@ -11322,7 +11322,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>30.42859366961928</v>
+        <v>32.90922878867406</v>
       </c>
       <c r="C419" t="n">
         <v>10.2921147857604</v>
@@ -11348,7 +11348,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>30.15935913739091</v>
+        <v>32.5941200344289</v>
       </c>
       <c r="C420" t="n">
         <v>10.27838185579331</v>
@@ -11374,7 +11374,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>29.88597759272568</v>
+        <v>32.27505109664999</v>
       </c>
       <c r="C421" t="n">
         <v>10.26345931484846</v>
@@ -11400,7 +11400,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>29.60841954870986</v>
+        <v>31.95200690948932</v>
       </c>
       <c r="C422" t="n">
         <v>10.24726661898617</v>
@@ -11426,7 +11426,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>29.32666010001541</v>
+        <v>31.62497697997637</v>
       </c>
       <c r="C423" t="n">
         <v>10.22972008500832</v>
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>29.040679262863</v>
+        <v>31.29395570844248</v>
       </c>
       <c r="C424" t="n">
         <v>10.21073299856303</v>
@@ -11478,7 +11478,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>28.75046231754472</v>
+        <v>30.95894271130819</v>
       </c>
       <c r="C425" t="n">
         <v>10.19021575001338</v>
@@ -11504,7 +11504,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>28.45600015191742</v>
+        <v>30.61994314469214</v>
       </c>
       <c r="C426" t="n">
         <v>10.16807599944253</v>
@@ -11530,7 +11530,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>28.15728960416575</v>
+        <v>30.27696802718916</v>
       </c>
       <c r="C427" t="n">
         <v>10.14421887202049</v>
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>27.85433380302977</v>
+        <v>29.93003456006166</v>
       </c>
       <c r="C428" t="n">
         <v>10.11854718478368</v>
@@ -11582,7 +11582,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>27.5471425035917</v>
+        <v>29.57916644298939</v>
       </c>
       <c r="C429" t="n">
         <v>10.09096170567924</v>
@@ -11608,7 +11608,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>27.23573241662822</v>
+        <v>29.22439418343433</v>
       </c>
       <c r="C430" t="n">
         <v>10.06136144550046</v>
@@ -11634,7 +11634,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>26.92012752945276</v>
+        <v>28.86575539759663</v>
       </c>
       <c r="C431" t="n">
         <v>10.02964398308889</v>
@@ -11660,7 +11660,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>26.60035941610435</v>
+        <v>28.50329510086916</v>
       </c>
       <c r="C432" t="n">
         <v>9.99570582390445</v>
@@ -11686,7 +11686,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>26.27646753468208</v>
+        <v>28.1370659856412</v>
       </c>
       <c r="C433" t="n">
         <v>9.959442791766529</v>
@@ -11712,7 +11712,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>25.94849950958132</v>
+        <v>27.7671286842584</v>
       </c>
       <c r="C434" t="n">
         <v>9.92075045325131</v>
@@ -11738,7 +11738,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>25.61651139635991</v>
+        <v>27.39355201491795</v>
       </c>
       <c r="C435" t="n">
         <v>9.87952457389301</v>
@@ -11764,7 +11764,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>25.28056792694957</v>
+        <v>27.01641320826456</v>
       </c>
       <c r="C436" t="n">
         <v>9.835661604983931</v>
@@ -11790,7 +11790,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>24.94074273293331</v>
+        <v>26.63579811245706</v>
       </c>
       <c r="C437" t="n">
         <v>9.789059199402526</v>
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>24.59711854463133</v>
+        <v>26.25180137449682</v>
       </c>
       <c r="C438" t="n">
         <v>9.73961675452378</v>
@@ -11842,7 +11842,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>24.24978736377937</v>
+        <v>25.86452659564923</v>
       </c>
       <c r="C439" t="n">
         <v>9.687235979886005</v>
@@ -11868,7 +11868,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>23.89885060764378</v>
+        <v>25.47408645884841</v>
       </c>
       <c r="C440" t="n">
         <v>9.631821486907345</v>
@@ -11894,7 +11894,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>23.54441922249709</v>
+        <v>25.08060282605358</v>
       </c>
       <c r="C441" t="n">
         <v>9.573281397567705</v>
@@ -11920,7 +11920,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>23.18661376447806</v>
+        <v>24.6842068036237</v>
       </c>
       <c r="C442" t="n">
         <v>9.511527968603168</v>
@@ -11946,7 +11946,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>22.82556444597901</v>
+        <v>24.28503877389448</v>
       </c>
       <c r="C443" t="n">
         <v>9.446478227404768</v>
@@ -11972,7 +11972,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>22.46141114584352</v>
+        <v>23.88324839127968</v>
       </c>
       <c r="C444" t="n">
         <v>9.378054615477163</v>
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>22.09430338181562</v>
+        <v>23.47899454137482</v>
       </c>
       <c r="C445" t="n">
         <v>9.306185635000551</v>
@@ -12024,7 +12024,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>21.72440024385938</v>
+        <v>23.07244526171677</v>
       </c>
       <c r="C446" t="n">
         <v>9.230806493756418</v>
@@ -12050,7 +12050,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>21.35187028716347</v>
+        <v>22.66377762304611</v>
       </c>
       <c r="C447" t="n">
         <v>9.151859743429407</v>
@@ -12076,7 +12076,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>20.97689138385784</v>
+        <v>22.25317757012906</v>
       </c>
       <c r="C448" t="n">
         <v>9.069295906089064</v>
@@ -12102,7 +12102,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>20.59965053269799</v>
+        <v>21.84083972142153</v>
       </c>
       <c r="C449" t="n">
         <v>8.983074083490772</v>
@@ -12128,7 +12128,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>20.22034362621534</v>
+        <v>21.426967127098</v>
       </c>
       <c r="C450" t="n">
         <v>8.893162543719679</v>
@@ -12154,7 +12154,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>19.83917517508733</v>
+        <v>21.01177098522059</v>
       </c>
       <c r="C451" t="n">
         <v>8.799539279638376</v>
@@ -12180,7 +12180,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>19.45635798974778</v>
+        <v>20.59547031608723</v>
       </c>
       <c r="C452" t="n">
         <v>8.702192533592305</v>
